--- a/metadata/Demographics.xlsx
+++ b/metadata/Demographics.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://056gc-my.sharepoint.com/personal/margrave_tbs-sct_gc_ca/Documents/Martin Gravel/AI Agent/PSES GPT - Public Service/API/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{6CF678EC-81EA-41FA-909F-A8BDDAFE71EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA512DE-E291-4C4F-B7A8-0577AC0A6426}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{6CF678EC-81EA-41FA-909F-A8BDDAFE71EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F6B1EA-CB69-49E7-9685-F9F7965EC49E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3394E694-5092-4D17-90C7-BE67C4B50CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3394E694-5092-4D17-90C7-BE67C4B50CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMCODE" sheetId="3" r:id="rId1"/>
     <sheet name="EEInfoDV" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DEMCODE!$A$1:$G$1255</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8236,6 +8240,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gravel, Martin" refreshedDate="45854.357079166664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1056" xr:uid="{7A4B821C-6734-467F-B455-148037083B18}">
   <cacheSource type="worksheet">
@@ -15695,7 +15703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D175CD10-247A-4E3C-AF4A-92533B004175}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D175CD10-247A-4E3C-AF4A-92533B004175}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -16165,10 +16173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C42477-C3FB-4C69-B720-FA9C5D7BBCD2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1259" sqref="B1259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -16194,13 +16203,13 @@
       <c r="D1" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>330</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -16219,7 +16228,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -16238,7 +16247,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -16257,7 +16266,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -16276,7 +16285,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -16295,7 +16304,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -16314,7 +16323,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" hidden="1">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -16333,7 +16342,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -16352,7 +16361,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="30" hidden="1">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -16371,7 +16380,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -16390,7 +16399,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
@@ -16409,7 +16418,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
@@ -16428,7 +16437,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="1">
         <v>1013</v>
       </c>
@@ -16447,7 +16456,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="1">
         <v>1014</v>
       </c>
@@ -16466,7 +16475,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="1">
         <v>1015</v>
       </c>
@@ -16485,7 +16494,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="30" hidden="1">
       <c r="A17" s="1">
         <v>1016</v>
       </c>
@@ -16504,7 +16513,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="30" hidden="1">
       <c r="A18" s="1">
         <v>1017</v>
       </c>
@@ -16523,7 +16532,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" hidden="1">
       <c r="A19" s="1">
         <v>1018</v>
       </c>
@@ -16542,7 +16551,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="1">
         <v>1019</v>
       </c>
@@ -16561,7 +16570,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="30" hidden="1">
       <c r="A21" s="1">
         <v>1020</v>
       </c>
@@ -16580,7 +16589,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="30">
+    <row r="22" spans="1:7" ht="30" hidden="1">
       <c r="A22" s="1">
         <v>1021</v>
       </c>
@@ -16599,7 +16608,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7" ht="30" hidden="1">
       <c r="A23" s="1">
         <v>1022</v>
       </c>
@@ -16618,7 +16627,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="1">
         <v>1023</v>
       </c>
@@ -16637,7 +16646,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="1">
         <v>1870</v>
       </c>
@@ -16656,7 +16665,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="1">
         <v>1871</v>
       </c>
@@ -16675,7 +16684,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="1">
         <v>1872</v>
       </c>
@@ -16694,7 +16703,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="1">
         <v>1873</v>
       </c>
@@ -16713,7 +16722,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7" ht="30" hidden="1">
       <c r="A29" s="1">
         <v>1874</v>
       </c>
@@ -16732,7 +16741,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="1">
         <v>1875</v>
       </c>
@@ -16751,7 +16760,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="30" hidden="1">
       <c r="A31" s="1">
         <v>1876</v>
       </c>
@@ -16770,7 +16779,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="1">
         <v>1877</v>
       </c>
@@ -16789,7 +16798,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="1">
         <v>1878</v>
       </c>
@@ -16808,7 +16817,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="1">
         <v>1879</v>
       </c>
@@ -16827,7 +16836,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="1">
         <v>1880</v>
       </c>
@@ -16846,7 +16855,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="1">
         <v>1881</v>
       </c>
@@ -16865,7 +16874,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="1">
         <v>1882</v>
       </c>
@@ -16884,7 +16893,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="1">
         <v>1883</v>
       </c>
@@ -16903,7 +16912,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="1">
         <v>1884</v>
       </c>
@@ -16922,7 +16931,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="1">
         <v>1885</v>
       </c>
@@ -16941,7 +16950,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="1">
         <v>1886</v>
       </c>
@@ -16960,7 +16969,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="1">
         <v>1887</v>
       </c>
@@ -16979,7 +16988,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="1">
         <v>1888</v>
       </c>
@@ -16998,7 +17007,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="1">
         <v>1889</v>
       </c>
@@ -17017,7 +17026,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="1">
         <v>1890</v>
       </c>
@@ -17036,7 +17045,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="1">
         <v>1891</v>
       </c>
@@ -17055,7 +17064,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="1">
         <v>1892</v>
       </c>
@@ -17074,7 +17083,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="1">
         <v>1893</v>
       </c>
@@ -17093,7 +17102,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="1">
         <v>1894</v>
       </c>
@@ -17112,7 +17121,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="1">
         <v>1895</v>
       </c>
@@ -17131,7 +17140,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="1">
         <v>1896</v>
       </c>
@@ -17150,7 +17159,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="1">
         <v>1897</v>
       </c>
@@ -17169,7 +17178,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="1">
         <v>1898</v>
       </c>
@@ -17188,7 +17197,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="1">
         <v>1899</v>
       </c>
@@ -17207,7 +17216,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="30" hidden="1">
       <c r="A55" s="1">
         <v>1900</v>
       </c>
@@ -17226,7 +17235,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:7" ht="30" hidden="1">
       <c r="A56" s="1">
         <v>1901</v>
       </c>
@@ -17245,7 +17254,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7" ht="30" hidden="1">
       <c r="A57" s="1">
         <v>1902</v>
       </c>
@@ -17264,7 +17273,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="30">
+    <row r="58" spans="1:7" ht="30" hidden="1">
       <c r="A58" s="1">
         <v>1903</v>
       </c>
@@ -17283,7 +17292,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="1">
         <v>1904</v>
       </c>
@@ -17302,7 +17311,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="1">
         <v>1905</v>
       </c>
@@ -17321,7 +17330,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="1">
         <v>1906</v>
       </c>
@@ -17340,7 +17349,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="1">
         <v>1907</v>
       </c>
@@ -17359,7 +17368,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="1">
         <v>1908</v>
       </c>
@@ -17378,7 +17387,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="30">
+    <row r="64" spans="1:7" ht="30" hidden="1">
       <c r="A64" s="1">
         <v>1909</v>
       </c>
@@ -17397,7 +17406,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="30">
+    <row r="65" spans="1:7" ht="30" hidden="1">
       <c r="A65" s="1">
         <v>1910</v>
       </c>
@@ -17416,7 +17425,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="1">
         <v>1911</v>
       </c>
@@ -17435,7 +17444,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="1">
         <v>1912</v>
       </c>
@@ -17454,7 +17463,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" s="1">
         <v>1913</v>
       </c>
@@ -17473,7 +17482,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="1">
         <v>1914</v>
       </c>
@@ -17492,7 +17501,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="1">
         <v>1915</v>
       </c>
@@ -17511,7 +17520,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="1">
         <v>1916</v>
       </c>
@@ -17530,7 +17539,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="1">
         <v>1917</v>
       </c>
@@ -17549,7 +17558,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="1">
         <v>1918</v>
       </c>
@@ -17568,7 +17577,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="1">
         <v>1919</v>
       </c>
@@ -17587,7 +17596,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="1">
         <v>1920</v>
       </c>
@@ -17606,7 +17615,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="1">
         <v>1921</v>
       </c>
@@ -17625,7 +17634,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="1">
         <v>1922</v>
       </c>
@@ -17644,7 +17653,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="45">
+    <row r="78" spans="1:7" ht="45" hidden="1">
       <c r="A78" s="1">
         <v>1923</v>
       </c>
@@ -17663,7 +17672,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="60">
+    <row r="79" spans="1:7" ht="60" hidden="1">
       <c r="A79" s="1">
         <v>1924</v>
       </c>
@@ -17682,7 +17691,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="30">
+    <row r="80" spans="1:7" ht="30" hidden="1">
       <c r="A80" s="1">
         <v>1925</v>
       </c>
@@ -17701,7 +17710,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="45">
+    <row r="81" spans="1:7" ht="45" hidden="1">
       <c r="A81" s="1">
         <v>1926</v>
       </c>
@@ -17720,7 +17729,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="1">
         <v>1927</v>
       </c>
@@ -17739,7 +17748,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="1">
         <v>1928</v>
       </c>
@@ -17758,7 +17767,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="1">
         <v>1929</v>
       </c>
@@ -17777,7 +17786,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="1">
         <v>1930</v>
       </c>
@@ -17796,7 +17805,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="1">
         <v>1931</v>
       </c>
@@ -17815,7 +17824,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="1">
         <v>1932</v>
       </c>
@@ -17834,7 +17843,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="1">
         <v>1933</v>
       </c>
@@ -17853,7 +17862,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="1">
         <v>1934</v>
       </c>
@@ -17872,7 +17881,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="1">
         <v>1935</v>
       </c>
@@ -17891,7 +17900,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="1">
         <v>1936</v>
       </c>
@@ -17912,7 +17921,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>1937</v>
+        <v>8474</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>450</v>
@@ -17931,7 +17940,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>1939</v>
+        <v>8475</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>451</v>
@@ -17950,7 +17959,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>1941</v>
+        <v>8476</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>452</v>
@@ -17967,7 +17976,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="1">
         <v>1943</v>
       </c>
@@ -17986,7 +17995,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" s="1">
         <v>1944</v>
       </c>
@@ -18005,7 +18014,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="1">
         <v>1945</v>
       </c>
@@ -18024,7 +18033,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="30">
+    <row r="98" spans="1:7" ht="30" hidden="1">
       <c r="A98" s="1">
         <v>1946</v>
       </c>
@@ -18043,7 +18052,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="1">
         <v>1948</v>
       </c>
@@ -18062,7 +18071,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="30">
+    <row r="100" spans="1:7" ht="30" hidden="1">
       <c r="A100" s="1">
         <v>1949</v>
       </c>
@@ -18081,7 +18090,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="30">
+    <row r="101" spans="1:7" ht="30" hidden="1">
       <c r="A101" s="1">
         <v>1951</v>
       </c>
@@ -18100,7 +18109,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="30">
+    <row r="102" spans="1:7" ht="30" hidden="1">
       <c r="A102" s="1">
         <v>1952</v>
       </c>
@@ -18119,7 +18128,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="1">
         <v>1954</v>
       </c>
@@ -18138,7 +18147,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="30">
+    <row r="104" spans="1:7" ht="30" hidden="1">
       <c r="A104" s="1">
         <v>1955</v>
       </c>
@@ -18157,7 +18166,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="1">
         <v>1957</v>
       </c>
@@ -18176,7 +18185,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="30">
+    <row r="106" spans="1:7" ht="30" hidden="1">
       <c r="A106" s="1">
         <v>1958</v>
       </c>
@@ -18195,7 +18204,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="1">
         <v>1960</v>
       </c>
@@ -18214,7 +18223,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="30">
+    <row r="108" spans="1:7" ht="30" hidden="1">
       <c r="A108" s="1">
         <v>1961</v>
       </c>
@@ -18233,7 +18242,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="1">
         <v>1963</v>
       </c>
@@ -18252,7 +18261,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7" ht="30" hidden="1">
       <c r="A110" s="1">
         <v>1964</v>
       </c>
@@ -18271,7 +18280,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="30">
+    <row r="111" spans="1:7" ht="30" hidden="1">
       <c r="A111" s="1">
         <v>1966</v>
       </c>
@@ -18290,7 +18299,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" ht="30">
+    <row r="112" spans="1:7" ht="30" hidden="1">
       <c r="A112" s="1">
         <v>1967</v>
       </c>
@@ -18309,7 +18318,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" ht="30">
+    <row r="113" spans="1:7" ht="30" hidden="1">
       <c r="A113" s="1">
         <v>1969</v>
       </c>
@@ -18328,7 +18337,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="45">
+    <row r="114" spans="1:7" ht="45" hidden="1">
       <c r="A114" s="1">
         <v>1970</v>
       </c>
@@ -18347,7 +18356,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="1">
         <v>1972</v>
       </c>
@@ -18366,7 +18375,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="30">
+    <row r="116" spans="1:7" ht="30" hidden="1">
       <c r="A116" s="1">
         <v>1973</v>
       </c>
@@ -18385,7 +18394,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="1">
         <v>1975</v>
       </c>
@@ -18404,7 +18413,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="30">
+    <row r="118" spans="1:7" ht="30" hidden="1">
       <c r="A118" s="1">
         <v>1976</v>
       </c>
@@ -18423,7 +18432,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" s="1">
         <v>1978</v>
       </c>
@@ -18442,7 +18451,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="30">
+    <row r="120" spans="1:7" ht="30" hidden="1">
       <c r="A120" s="1">
         <v>1979</v>
       </c>
@@ -18461,7 +18470,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="1">
         <v>1981</v>
       </c>
@@ -18480,7 +18489,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="30">
+    <row r="122" spans="1:7" ht="30" hidden="1">
       <c r="A122" s="1">
         <v>1982</v>
       </c>
@@ -18499,7 +18508,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" s="1">
         <v>1984</v>
       </c>
@@ -18518,7 +18527,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="30">
+    <row r="124" spans="1:7" ht="30" hidden="1">
       <c r="A124" s="1">
         <v>1985</v>
       </c>
@@ -18537,7 +18546,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" s="1">
         <v>1987</v>
       </c>
@@ -18556,7 +18565,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" ht="30">
+    <row r="126" spans="1:7" ht="30" hidden="1">
       <c r="A126" s="1">
         <v>1988</v>
       </c>
@@ -18575,7 +18584,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" s="1">
         <v>1990</v>
       </c>
@@ -18594,7 +18603,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" s="1">
         <v>1991</v>
       </c>
@@ -18613,7 +18622,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="1">
         <v>1992</v>
       </c>
@@ -18632,7 +18641,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="1">
         <v>1995</v>
       </c>
@@ -18651,7 +18660,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="1">
         <v>1998</v>
       </c>
@@ -18670,7 +18679,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" s="1">
         <v>2001</v>
       </c>
@@ -18689,7 +18698,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" s="1">
         <v>2002</v>
       </c>
@@ -18708,7 +18717,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="1">
         <v>2003</v>
       </c>
@@ -18727,7 +18736,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" s="1">
         <v>2004</v>
       </c>
@@ -18746,7 +18755,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136" s="1">
         <v>2006</v>
       </c>
@@ -18765,7 +18774,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" s="1">
         <v>2007</v>
       </c>
@@ -18784,7 +18793,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" s="1">
         <v>2009</v>
       </c>
@@ -18803,7 +18812,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" hidden="1">
       <c r="A139" s="1">
         <v>2010</v>
       </c>
@@ -18822,7 +18831,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="1">
         <v>2012</v>
       </c>
@@ -18841,7 +18850,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="1">
         <v>2013</v>
       </c>
@@ -18859,7 +18868,7 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="1">
         <v>2015</v>
       </c>
@@ -18877,7 +18886,7 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="1">
         <v>2016</v>
       </c>
@@ -18895,7 +18904,7 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="1">
         <v>2018</v>
       </c>
@@ -18913,7 +18922,7 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145" s="1">
         <v>2019</v>
       </c>
@@ -18931,7 +18940,7 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" s="1">
         <v>2021</v>
       </c>
@@ -18949,7 +18958,7 @@
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1">
       <c r="A147" s="1">
         <v>2022</v>
       </c>
@@ -18967,7 +18976,7 @@
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" hidden="1">
       <c r="A148" s="1">
         <v>2024</v>
       </c>
@@ -18985,7 +18994,7 @@
       </c>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1">
       <c r="A149" s="1">
         <v>2025</v>
       </c>
@@ -19003,7 +19012,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150" s="1">
         <v>2026</v>
       </c>
@@ -19021,7 +19030,7 @@
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" hidden="1">
       <c r="A151" s="1">
         <v>2027</v>
       </c>
@@ -19039,7 +19048,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1">
       <c r="A152" s="1">
         <v>2028</v>
       </c>
@@ -19057,7 +19066,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153" s="1">
         <v>2029</v>
       </c>
@@ -19075,7 +19084,7 @@
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154" s="1">
         <v>2030</v>
       </c>
@@ -19093,7 +19102,7 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1">
       <c r="A155" s="1">
         <v>2031</v>
       </c>
@@ -19111,7 +19120,7 @@
       </c>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1">
       <c r="A156" s="1">
         <v>2032</v>
       </c>
@@ -19129,7 +19138,7 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1">
       <c r="A157" s="1">
         <v>2033</v>
       </c>
@@ -19147,7 +19156,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1">
       <c r="A158" s="1">
         <v>2034</v>
       </c>
@@ -19165,7 +19174,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" hidden="1">
       <c r="A159" s="1">
         <v>2035</v>
       </c>
@@ -19183,7 +19192,7 @@
       </c>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1">
       <c r="A160" s="1">
         <v>2036</v>
       </c>
@@ -19201,7 +19210,7 @@
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="1">
         <v>2037</v>
       </c>
@@ -19219,7 +19228,7 @@
       </c>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="1">
         <v>2038</v>
       </c>
@@ -19237,7 +19246,7 @@
       </c>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="1">
         <v>2039</v>
       </c>
@@ -19255,7 +19264,7 @@
       </c>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="1">
         <v>2040</v>
       </c>
@@ -19273,7 +19282,7 @@
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="1">
         <v>2041</v>
       </c>
@@ -19291,7 +19300,7 @@
       </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" hidden="1">
       <c r="A166" s="1">
         <v>2042</v>
       </c>
@@ -19309,7 +19318,7 @@
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="1">
         <v>2043</v>
       </c>
@@ -19327,7 +19336,7 @@
       </c>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168" s="1">
         <v>2044</v>
       </c>
@@ -19345,7 +19354,7 @@
       </c>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="1">
         <v>2045</v>
       </c>
@@ -19363,7 +19372,7 @@
       </c>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" hidden="1">
       <c r="A170" s="1">
         <v>2046</v>
       </c>
@@ -19381,7 +19390,7 @@
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="1">
         <v>2047</v>
       </c>
@@ -19399,7 +19408,7 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="1">
         <v>2048</v>
       </c>
@@ -19417,7 +19426,7 @@
       </c>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="30">
+    <row r="173" spans="1:7" ht="30" hidden="1">
       <c r="A173" s="1">
         <v>2049</v>
       </c>
@@ -19435,7 +19444,7 @@
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="1">
         <v>2050</v>
       </c>
@@ -19453,7 +19462,7 @@
       </c>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175" s="1">
         <v>2051</v>
       </c>
@@ -19471,7 +19480,7 @@
       </c>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" s="1">
         <v>2052</v>
       </c>
@@ -19489,7 +19498,7 @@
       </c>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="1">
         <v>2053</v>
       </c>
@@ -19507,7 +19516,7 @@
       </c>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="1">
         <v>2054</v>
       </c>
@@ -19525,7 +19534,7 @@
       </c>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="1">
         <v>2055</v>
       </c>
@@ -19543,7 +19552,7 @@
       </c>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="1">
         <v>2056</v>
       </c>
@@ -19561,7 +19570,7 @@
       </c>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="1">
         <v>2057</v>
       </c>
@@ -19579,7 +19588,7 @@
       </c>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="1">
         <v>2058</v>
       </c>
@@ -19597,7 +19606,7 @@
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="1">
         <v>2059</v>
       </c>
@@ -19615,7 +19624,7 @@
       </c>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="30">
+    <row r="184" spans="1:7" ht="30" hidden="1">
       <c r="A184" s="1">
         <v>2061</v>
       </c>
@@ -19633,7 +19642,7 @@
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" ht="30">
+    <row r="185" spans="1:7" ht="30" hidden="1">
       <c r="A185" s="1">
         <v>2062</v>
       </c>
@@ -19651,7 +19660,7 @@
       </c>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="30">
+    <row r="186" spans="1:7" ht="30" hidden="1">
       <c r="A186" s="1">
         <v>2063</v>
       </c>
@@ -19669,7 +19678,7 @@
       </c>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" ht="30">
+    <row r="187" spans="1:7" ht="30" hidden="1">
       <c r="A187" s="1">
         <v>2064</v>
       </c>
@@ -19687,7 +19696,7 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="1">
         <v>2065</v>
       </c>
@@ -19705,7 +19714,7 @@
       </c>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1">
       <c r="A189" s="1">
         <v>2067</v>
       </c>
@@ -19723,7 +19732,7 @@
       </c>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="1">
         <v>2069</v>
       </c>
@@ -19741,7 +19750,7 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="1">
         <v>2071</v>
       </c>
@@ -19759,7 +19768,7 @@
       </c>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192" s="1">
         <v>2073</v>
       </c>
@@ -19777,7 +19786,7 @@
       </c>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="1">
         <v>2075</v>
       </c>
@@ -19795,7 +19804,7 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" hidden="1">
       <c r="A194" s="1">
         <v>2077</v>
       </c>
@@ -19813,7 +19822,7 @@
       </c>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" hidden="1">
       <c r="A195" s="1">
         <v>2079</v>
       </c>
@@ -19831,7 +19840,7 @@
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="1">
         <v>2081</v>
       </c>
@@ -19849,7 +19858,7 @@
       </c>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="1">
         <v>2083</v>
       </c>
@@ -19867,7 +19876,7 @@
       </c>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="1">
         <v>2085</v>
       </c>
@@ -19885,7 +19894,7 @@
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="1">
         <v>2087</v>
       </c>
@@ -19903,7 +19912,7 @@
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="1">
         <v>2089</v>
       </c>
@@ -19921,7 +19930,7 @@
       </c>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="1">
         <v>2091</v>
       </c>
@@ -19939,7 +19948,7 @@
       </c>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="1">
         <v>2093</v>
       </c>
@@ -19957,7 +19966,7 @@
       </c>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="1">
         <v>2095</v>
       </c>
@@ -19975,7 +19984,7 @@
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" hidden="1">
       <c r="A204" s="1">
         <v>2097</v>
       </c>
@@ -19993,7 +20002,7 @@
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="1">
         <v>2099</v>
       </c>
@@ -20011,7 +20020,7 @@
       </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" hidden="1">
       <c r="A206" s="1">
         <v>2101</v>
       </c>
@@ -20029,7 +20038,7 @@
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="1">
         <v>2103</v>
       </c>
@@ -20047,7 +20056,7 @@
       </c>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" hidden="1">
       <c r="A208" s="1">
         <v>2105</v>
       </c>
@@ -20065,7 +20074,7 @@
       </c>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="1">
         <v>2107</v>
       </c>
@@ -20084,7 +20093,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="1">
         <v>2109</v>
       </c>
@@ -20103,7 +20112,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="1">
         <v>1025</v>
       </c>
@@ -20122,7 +20131,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="1">
         <v>1026</v>
       </c>
@@ -20141,7 +20150,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="1">
         <v>1027</v>
       </c>
@@ -20160,7 +20169,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="1">
         <v>1028</v>
       </c>
@@ -20179,7 +20188,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="1">
         <v>1029</v>
       </c>
@@ -20198,7 +20207,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="1">
         <v>1030</v>
       </c>
@@ -20217,7 +20226,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="1">
         <v>1031</v>
       </c>
@@ -20236,7 +20245,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="1">
         <v>1032</v>
       </c>
@@ -20255,7 +20264,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="1">
         <v>1033</v>
       </c>
@@ -20274,7 +20283,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="1">
         <v>1034</v>
       </c>
@@ -20293,7 +20302,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="1">
         <v>1035</v>
       </c>
@@ -20312,7 +20321,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="1">
         <v>1036</v>
       </c>
@@ -20331,7 +20340,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="1">
         <v>1037</v>
       </c>
@@ -20350,7 +20359,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="1">
         <v>1039</v>
       </c>
@@ -20369,7 +20378,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="1">
         <v>1040</v>
       </c>
@@ -20388,7 +20397,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="1">
         <v>1041</v>
       </c>
@@ -20407,7 +20416,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="1">
         <v>1043</v>
       </c>
@@ -20426,7 +20435,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="1">
         <v>1044</v>
       </c>
@@ -20445,7 +20454,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="1">
         <v>1045</v>
       </c>
@@ -20464,7 +20473,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="1">
         <v>1046</v>
       </c>
@@ -20483,7 +20492,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="1">
         <v>1047</v>
       </c>
@@ -20502,7 +20511,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="1">
         <v>1048</v>
       </c>
@@ -20521,7 +20530,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="1">
         <v>1049</v>
       </c>
@@ -20540,7 +20549,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="1">
         <v>1050</v>
       </c>
@@ -20559,7 +20568,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="1">
         <v>1052</v>
       </c>
@@ -20578,7 +20587,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="1">
         <v>1053</v>
       </c>
@@ -20597,7 +20606,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="1">
         <v>1054</v>
       </c>
@@ -20616,7 +20625,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="1">
         <v>1056</v>
       </c>
@@ -20635,7 +20644,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="1">
         <v>1057</v>
       </c>
@@ -20654,7 +20663,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="1">
         <v>1058</v>
       </c>
@@ -20673,7 +20682,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="1">
         <v>1060</v>
       </c>
@@ -20692,7 +20701,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" s="1">
         <v>1061</v>
       </c>
@@ -20711,7 +20720,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243" s="1">
         <v>1063</v>
       </c>
@@ -20730,7 +20739,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" s="1">
         <v>1064</v>
       </c>
@@ -20749,7 +20758,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245" s="1">
         <v>1065</v>
       </c>
@@ -20768,7 +20777,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" hidden="1">
       <c r="A246" s="1">
         <v>1066</v>
       </c>
@@ -20787,7 +20796,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="1">
         <v>1068</v>
       </c>
@@ -20806,7 +20815,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="1">
         <v>1069</v>
       </c>
@@ -20825,7 +20834,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" hidden="1">
       <c r="A249" s="1">
         <v>1070</v>
       </c>
@@ -20844,7 +20853,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="1">
         <v>1071</v>
       </c>
@@ -20863,7 +20872,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="1">
         <v>1072</v>
       </c>
@@ -20882,7 +20891,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="1">
         <v>1073</v>
       </c>
@@ -20901,7 +20910,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" hidden="1">
       <c r="A253" s="1">
         <v>1075</v>
       </c>
@@ -20920,7 +20929,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="1">
         <v>1076</v>
       </c>
@@ -20939,7 +20948,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="1">
         <v>1077</v>
       </c>
@@ -20958,7 +20967,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" hidden="1">
       <c r="A256" s="1">
         <v>1078</v>
       </c>
@@ -20977,7 +20986,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="1">
         <v>1079</v>
       </c>
@@ -20996,7 +21005,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="1">
         <v>1081</v>
       </c>
@@ -21015,7 +21024,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" hidden="1">
       <c r="A259" s="1">
         <v>1082</v>
       </c>
@@ -21034,7 +21043,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="1">
         <v>1083</v>
       </c>
@@ -21053,7 +21062,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1">
       <c r="A261" s="1">
         <v>1084</v>
       </c>
@@ -21072,7 +21081,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" hidden="1">
       <c r="A262" s="1">
         <v>1085</v>
       </c>
@@ -21091,7 +21100,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263" s="1">
         <v>1087</v>
       </c>
@@ -21110,7 +21119,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" hidden="1">
       <c r="A264" s="1">
         <v>1088</v>
       </c>
@@ -21129,7 +21138,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" hidden="1">
       <c r="A265" s="1">
         <v>1089</v>
       </c>
@@ -21148,7 +21157,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" hidden="1">
       <c r="A266" s="1">
         <v>1090</v>
       </c>
@@ -21167,7 +21176,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" hidden="1">
       <c r="A267" s="1">
         <v>1091</v>
       </c>
@@ -21186,7 +21195,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" hidden="1">
       <c r="A268" s="1">
         <v>1092</v>
       </c>
@@ -21205,7 +21214,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269" s="1">
         <v>1093</v>
       </c>
@@ -21224,7 +21233,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270" s="1">
         <v>1095</v>
       </c>
@@ -21243,7 +21252,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" hidden="1">
       <c r="A271" s="1">
         <v>1096</v>
       </c>
@@ -21262,7 +21271,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="1">
         <v>1097</v>
       </c>
@@ -21281,7 +21290,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="1">
         <v>1098</v>
       </c>
@@ -21300,7 +21309,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" hidden="1">
       <c r="A274" s="1">
         <v>1099</v>
       </c>
@@ -21319,7 +21328,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="1">
         <v>1100</v>
       </c>
@@ -21338,7 +21347,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="1">
         <v>1101</v>
       </c>
@@ -21357,7 +21366,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="1">
         <v>1102</v>
       </c>
@@ -21376,7 +21385,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" hidden="1">
       <c r="A278" s="1">
         <v>1103</v>
       </c>
@@ -21395,7 +21404,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="1">
         <v>1105</v>
       </c>
@@ -21414,7 +21423,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" hidden="1">
       <c r="A280" s="1">
         <v>1106</v>
       </c>
@@ -21433,7 +21442,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" hidden="1">
       <c r="A281" s="1">
         <v>1107</v>
       </c>
@@ -21452,7 +21461,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" hidden="1">
       <c r="A282" s="1">
         <v>1108</v>
       </c>
@@ -21471,7 +21480,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" hidden="1">
       <c r="A283" s="1">
         <v>1109</v>
       </c>
@@ -21490,7 +21499,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" hidden="1">
       <c r="A284" s="1">
         <v>1110</v>
       </c>
@@ -21509,7 +21518,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" hidden="1">
       <c r="A285" s="1">
         <v>1112</v>
       </c>
@@ -21528,7 +21537,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" hidden="1">
       <c r="A286" s="1">
         <v>1113</v>
       </c>
@@ -21547,7 +21556,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="1">
         <v>1114</v>
       </c>
@@ -21566,7 +21575,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="1">
         <v>1115</v>
       </c>
@@ -21585,7 +21594,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" hidden="1">
       <c r="A289" s="1">
         <v>1116</v>
       </c>
@@ -21604,7 +21613,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="1">
         <v>1118</v>
       </c>
@@ -21623,7 +21632,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="1">
         <v>1119</v>
       </c>
@@ -21642,7 +21651,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292" s="1">
         <v>1120</v>
       </c>
@@ -21661,7 +21670,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="1">
         <v>1121</v>
       </c>
@@ -21680,7 +21689,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="1">
         <v>1122</v>
       </c>
@@ -21699,7 +21708,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="1">
         <v>1123</v>
       </c>
@@ -21718,7 +21727,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" hidden="1">
       <c r="A296" s="1">
         <v>1124</v>
       </c>
@@ -21737,7 +21746,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="1">
         <v>1126</v>
       </c>
@@ -21756,7 +21765,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" hidden="1">
       <c r="A298" s="1">
         <v>1127</v>
       </c>
@@ -21775,7 +21784,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" hidden="1">
       <c r="A299" s="1">
         <v>1128</v>
       </c>
@@ -21794,7 +21803,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" hidden="1">
       <c r="A300" s="1">
         <v>1129</v>
       </c>
@@ -21813,7 +21822,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" hidden="1">
       <c r="A301" s="1">
         <v>1130</v>
       </c>
@@ -21832,7 +21841,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" hidden="1">
       <c r="A302" s="1">
         <v>1132</v>
       </c>
@@ -21851,7 +21860,7 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" hidden="1">
       <c r="A303" s="1">
         <v>1133</v>
       </c>
@@ -21870,7 +21879,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" hidden="1">
       <c r="A304" s="1">
         <v>1134</v>
       </c>
@@ -21889,7 +21898,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" hidden="1">
       <c r="A305" s="1">
         <v>1135</v>
       </c>
@@ -21908,7 +21917,7 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" hidden="1">
       <c r="A306" s="1">
         <v>1136</v>
       </c>
@@ -21927,7 +21936,7 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" hidden="1">
       <c r="A307" s="1">
         <v>1138</v>
       </c>
@@ -21946,7 +21955,7 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" s="1">
         <v>1139</v>
       </c>
@@ -21965,7 +21974,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" hidden="1">
       <c r="A309" s="1">
         <v>1141</v>
       </c>
@@ -21984,7 +21993,7 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" hidden="1">
       <c r="A310" s="1">
         <v>1142</v>
       </c>
@@ -22003,7 +22012,7 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" s="1">
         <v>1143</v>
       </c>
@@ -22022,7 +22031,7 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" hidden="1">
       <c r="A312" s="1">
         <v>1144</v>
       </c>
@@ -22040,7 +22049,7 @@
       </c>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" hidden="1">
       <c r="A313" s="1">
         <v>1145</v>
       </c>
@@ -22058,7 +22067,7 @@
       </c>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" s="1">
         <v>1146</v>
       </c>
@@ -22076,7 +22085,7 @@
       </c>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" hidden="1">
       <c r="A315" s="1">
         <v>1147</v>
       </c>
@@ -22094,7 +22103,7 @@
       </c>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" hidden="1">
       <c r="A316" s="1">
         <v>1149</v>
       </c>
@@ -22112,7 +22121,7 @@
       </c>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" s="1">
         <v>1150</v>
       </c>
@@ -22130,7 +22139,7 @@
       </c>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" hidden="1">
       <c r="A318" s="1">
         <v>1151</v>
       </c>
@@ -22148,7 +22157,7 @@
       </c>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319" s="1">
         <v>1152</v>
       </c>
@@ -22166,7 +22175,7 @@
       </c>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320" s="1">
         <v>1153</v>
       </c>
@@ -22184,7 +22193,7 @@
       </c>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" hidden="1">
       <c r="A321" s="1">
         <v>1154</v>
       </c>
@@ -22202,7 +22211,7 @@
       </c>
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="1">
         <v>1156</v>
       </c>
@@ -22220,7 +22229,7 @@
       </c>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323" s="1">
         <v>1157</v>
       </c>
@@ -22238,7 +22247,7 @@
       </c>
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" hidden="1">
       <c r="A324" s="1">
         <v>1158</v>
       </c>
@@ -22256,7 +22265,7 @@
       </c>
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" hidden="1">
       <c r="A325" s="1">
         <v>1159</v>
       </c>
@@ -22274,7 +22283,7 @@
       </c>
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326" s="1">
         <v>1160</v>
       </c>
@@ -22292,7 +22301,7 @@
       </c>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" hidden="1">
       <c r="A327" s="1">
         <v>1169</v>
       </c>
@@ -22310,7 +22319,7 @@
       </c>
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" hidden="1">
       <c r="A328" s="1">
         <v>1170</v>
       </c>
@@ -22328,7 +22337,7 @@
       </c>
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" hidden="1">
       <c r="A329" s="1">
         <v>1171</v>
       </c>
@@ -22346,7 +22355,7 @@
       </c>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" hidden="1">
       <c r="A330" s="1">
         <v>1172</v>
       </c>
@@ -22364,7 +22373,7 @@
       </c>
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" hidden="1">
       <c r="A331" s="1">
         <v>1162</v>
       </c>
@@ -22381,7 +22390,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" hidden="1">
       <c r="A332" s="1">
         <v>1163</v>
       </c>
@@ -22398,7 +22407,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" hidden="1">
       <c r="A333" s="1">
         <v>1164</v>
       </c>
@@ -22415,7 +22424,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" hidden="1">
       <c r="A334" s="1">
         <v>1165</v>
       </c>
@@ -22432,7 +22441,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1">
       <c r="A335" s="1">
         <v>1166</v>
       </c>
@@ -22449,7 +22458,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" hidden="1">
       <c r="A336" s="1">
         <v>1167</v>
       </c>
@@ -22466,7 +22475,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" s="1">
         <v>1174</v>
       </c>
@@ -22483,7 +22492,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" s="1">
         <v>1175</v>
       </c>
@@ -22500,7 +22509,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" s="1">
         <v>1176</v>
       </c>
@@ -22517,7 +22526,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" s="1">
         <v>1177</v>
       </c>
@@ -22534,7 +22543,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" s="1">
         <v>1179</v>
       </c>
@@ -22551,7 +22560,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" s="1">
         <v>1180</v>
       </c>
@@ -22568,7 +22577,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" s="1">
         <v>1181</v>
       </c>
@@ -22585,7 +22594,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" s="1">
         <v>1182</v>
       </c>
@@ -22602,7 +22611,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" s="1">
         <v>1183</v>
       </c>
@@ -22619,7 +22628,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" s="1">
         <v>1185</v>
       </c>
@@ -22636,7 +22645,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347" s="1">
         <v>1186</v>
       </c>
@@ -22653,7 +22662,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" s="1">
         <v>1187</v>
       </c>
@@ -22670,7 +22679,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" s="1">
         <v>1189</v>
       </c>
@@ -22687,7 +22696,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" s="1">
         <v>1190</v>
       </c>
@@ -22704,7 +22713,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" s="1">
         <v>1191</v>
       </c>
@@ -22721,7 +22730,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" s="1">
         <v>1193</v>
       </c>
@@ -22738,7 +22747,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" s="1">
         <v>1194</v>
       </c>
@@ -22755,7 +22764,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" s="1">
         <v>1195</v>
       </c>
@@ -22772,7 +22781,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" s="1">
         <v>1196</v>
       </c>
@@ -22789,7 +22798,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" s="1">
         <v>1198</v>
       </c>
@@ -22806,7 +22815,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" s="1">
         <v>1199</v>
       </c>
@@ -22823,7 +22832,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" s="1">
         <v>1200</v>
       </c>
@@ -22840,7 +22849,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359" s="1">
         <v>1201</v>
       </c>
@@ -22857,7 +22866,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" s="1">
         <v>1202</v>
       </c>
@@ -22874,7 +22883,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" s="1">
         <v>1203</v>
       </c>
@@ -22891,7 +22900,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" s="1">
         <v>1204</v>
       </c>
@@ -22908,7 +22917,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" s="1">
         <v>1206</v>
       </c>
@@ -22925,7 +22934,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" s="1">
         <v>1207</v>
       </c>
@@ -22942,7 +22951,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" s="1">
         <v>1208</v>
       </c>
@@ -22959,7 +22968,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" s="1">
         <v>1210</v>
       </c>
@@ -22976,7 +22985,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" s="1">
         <v>1211</v>
       </c>
@@ -22993,7 +23002,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" s="1">
         <v>1212</v>
       </c>
@@ -23010,7 +23019,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" s="1">
         <v>1213</v>
       </c>
@@ -23027,7 +23036,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" s="1">
         <v>1214</v>
       </c>
@@ -23044,7 +23053,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" s="1">
         <v>1215</v>
       </c>
@@ -23061,7 +23070,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" s="1">
         <v>1216</v>
       </c>
@@ -23078,7 +23087,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" s="1">
         <v>1217</v>
       </c>
@@ -23095,7 +23104,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" s="1">
         <v>1219</v>
       </c>
@@ -23112,7 +23121,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375" s="1">
         <v>1220</v>
       </c>
@@ -23129,7 +23138,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376" s="1">
         <v>1221</v>
       </c>
@@ -23146,7 +23155,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377" s="1">
         <v>1222</v>
       </c>
@@ -23163,7 +23172,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378" s="1">
         <v>1223</v>
       </c>
@@ -23180,7 +23189,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" hidden="1">
       <c r="A379" s="1">
         <v>1224</v>
       </c>
@@ -23197,7 +23206,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" hidden="1">
       <c r="A380" s="1">
         <v>1228</v>
       </c>
@@ -23214,7 +23223,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" hidden="1">
       <c r="A381" s="1">
         <v>1229</v>
       </c>
@@ -23231,7 +23240,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" hidden="1">
       <c r="A382" s="1">
         <v>1230</v>
       </c>
@@ -23248,7 +23257,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" hidden="1">
       <c r="A383" s="1">
         <v>1231</v>
       </c>
@@ -23265,7 +23274,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384" s="1">
         <v>1232</v>
       </c>
@@ -23282,7 +23291,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" hidden="1">
       <c r="A385" s="1">
         <v>1233</v>
       </c>
@@ -23299,7 +23308,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" hidden="1">
       <c r="A386" s="1">
         <v>1234</v>
       </c>
@@ -23316,7 +23325,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" hidden="1">
       <c r="A387" s="1">
         <v>1235</v>
       </c>
@@ -23333,7 +23342,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" hidden="1">
       <c r="A388" s="1">
         <v>1237</v>
       </c>
@@ -23350,7 +23359,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389" s="1">
         <v>1238</v>
       </c>
@@ -23367,7 +23376,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" s="1">
         <v>1239</v>
       </c>
@@ -23384,7 +23393,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" s="1">
         <v>1240</v>
       </c>
@@ -23401,7 +23410,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" s="1">
         <v>1241</v>
       </c>
@@ -23418,7 +23427,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393" s="1">
         <v>1242</v>
       </c>
@@ -23435,7 +23444,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" s="1">
         <v>1243</v>
       </c>
@@ -23452,7 +23461,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395" s="1">
         <v>1244</v>
       </c>
@@ -23469,7 +23478,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396" s="1">
         <v>1245</v>
       </c>
@@ -23486,7 +23495,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397" s="1">
         <v>1247</v>
       </c>
@@ -23503,7 +23512,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" s="1">
         <v>1248</v>
       </c>
@@ -23520,7 +23529,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399" s="1">
         <v>1249</v>
       </c>
@@ -23537,7 +23546,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" s="1">
         <v>1250</v>
       </c>
@@ -23554,7 +23563,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" s="1">
         <v>1251</v>
       </c>
@@ -23571,7 +23580,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" s="1">
         <v>1252</v>
       </c>
@@ -23588,7 +23597,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" s="1">
         <v>1254</v>
       </c>
@@ -23605,7 +23614,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" s="1">
         <v>1255</v>
       </c>
@@ -23622,7 +23631,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" s="1">
         <v>1256</v>
       </c>
@@ -23639,7 +23648,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" s="1">
         <v>1257</v>
       </c>
@@ -23656,7 +23665,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" s="1">
         <v>1258</v>
       </c>
@@ -23673,7 +23682,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" s="1">
         <v>1259</v>
       </c>
@@ -23690,7 +23699,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" s="1">
         <v>1261</v>
       </c>
@@ -23707,7 +23716,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" hidden="1">
       <c r="A410" s="1">
         <v>1262</v>
       </c>
@@ -23724,7 +23733,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" s="1">
         <v>1264</v>
       </c>
@@ -23741,7 +23750,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" s="1">
         <v>1265</v>
       </c>
@@ -23758,7 +23767,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" s="1">
         <v>1266</v>
       </c>
@@ -23775,7 +23784,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" s="1">
         <v>1267</v>
       </c>
@@ -23792,7 +23801,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" s="1">
         <v>1268</v>
       </c>
@@ -23809,7 +23818,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416" s="1">
         <v>1269</v>
       </c>
@@ -23826,7 +23835,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" s="1">
         <v>1270</v>
       </c>
@@ -23843,7 +23852,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" hidden="1">
       <c r="A418" s="1">
         <v>1271</v>
       </c>
@@ -23860,7 +23869,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" s="1">
         <v>1272</v>
       </c>
@@ -23877,7 +23886,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" s="1">
         <v>1273</v>
       </c>
@@ -23894,7 +23903,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421" s="1">
         <v>1275</v>
       </c>
@@ -23911,7 +23920,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" s="1">
         <v>1276</v>
       </c>
@@ -23928,7 +23937,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" s="1">
         <v>1277</v>
       </c>
@@ -23945,7 +23954,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" s="1">
         <v>1278</v>
       </c>
@@ -23962,7 +23971,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" s="1">
         <v>1279</v>
       </c>
@@ -23979,7 +23988,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" s="1">
         <v>1281</v>
       </c>
@@ -23996,7 +24005,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" s="1">
         <v>1282</v>
       </c>
@@ -24013,7 +24022,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" s="1">
         <v>1283</v>
       </c>
@@ -24030,7 +24039,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429" s="1">
         <v>1300</v>
       </c>
@@ -24047,7 +24056,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" s="1">
         <v>1284</v>
       </c>
@@ -24064,7 +24073,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" s="1">
         <v>1301</v>
       </c>
@@ -24081,7 +24090,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" s="1">
         <v>1285</v>
       </c>
@@ -24098,7 +24107,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" s="1">
         <v>1302</v>
       </c>
@@ -24115,7 +24124,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" s="1">
         <v>1286</v>
       </c>
@@ -24132,7 +24141,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435" s="1">
         <v>1303</v>
       </c>
@@ -24149,7 +24158,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" s="1">
         <v>1287</v>
       </c>
@@ -24166,7 +24175,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437" s="1">
         <v>1304</v>
       </c>
@@ -24183,7 +24192,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438" s="1">
         <v>1288</v>
       </c>
@@ -24200,7 +24209,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" s="1">
         <v>1305</v>
       </c>
@@ -24217,7 +24226,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" s="1">
         <v>1290</v>
       </c>
@@ -24234,7 +24243,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" s="1">
         <v>1306</v>
       </c>
@@ -24251,7 +24260,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442" s="1">
         <v>1291</v>
       </c>
@@ -24268,7 +24277,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" s="1">
         <v>1307</v>
       </c>
@@ -24285,7 +24294,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" s="1">
         <v>1292</v>
       </c>
@@ -24302,7 +24311,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" s="1">
         <v>1308</v>
       </c>
@@ -24319,7 +24328,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446" s="1">
         <v>1293</v>
       </c>
@@ -24336,7 +24345,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" s="1">
         <v>1310</v>
       </c>
@@ -24353,7 +24362,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" hidden="1">
       <c r="A448" s="1">
         <v>1295</v>
       </c>
@@ -24370,7 +24379,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" hidden="1">
       <c r="A449" s="1">
         <v>1311</v>
       </c>
@@ -24387,7 +24396,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" hidden="1">
       <c r="A450" s="1">
         <v>1296</v>
       </c>
@@ -24404,7 +24413,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" hidden="1">
       <c r="A451" s="1">
         <v>1312</v>
       </c>
@@ -24421,7 +24430,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452" s="1">
         <v>1297</v>
       </c>
@@ -24438,7 +24447,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453" s="1">
         <v>1313</v>
       </c>
@@ -24455,7 +24464,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454" s="1">
         <v>1298</v>
       </c>
@@ -24472,7 +24481,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455" s="1">
         <v>1314</v>
       </c>
@@ -24489,7 +24498,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456" s="1">
         <v>1316</v>
       </c>
@@ -24506,7 +24515,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457" s="1">
         <v>1317</v>
       </c>
@@ -24523,7 +24532,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458" s="1">
         <v>1318</v>
       </c>
@@ -24540,7 +24549,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459" s="1">
         <v>1319</v>
       </c>
@@ -24557,7 +24566,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460" s="1">
         <v>1320</v>
       </c>
@@ -24574,7 +24583,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461" s="1">
         <v>1321</v>
       </c>
@@ -24591,7 +24600,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" hidden="1">
       <c r="A462" s="1">
         <v>1322</v>
       </c>
@@ -24608,7 +24617,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" hidden="1">
       <c r="A463" s="1">
         <v>1323</v>
       </c>
@@ -24625,7 +24634,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" hidden="1">
       <c r="A464" s="1">
         <v>1326</v>
       </c>
@@ -24642,7 +24651,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465" s="1">
         <v>1327</v>
       </c>
@@ -24659,7 +24668,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466" s="1">
         <v>1328</v>
       </c>
@@ -24676,7 +24685,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467" s="1">
         <v>1329</v>
       </c>
@@ -24693,7 +24702,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468" s="1">
         <v>1330</v>
       </c>
@@ -24710,7 +24719,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469" s="1">
         <v>1331</v>
       </c>
@@ -24727,7 +24736,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470" s="1">
         <v>1332</v>
       </c>
@@ -24744,7 +24753,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" hidden="1">
       <c r="A471" s="1">
         <v>1333</v>
       </c>
@@ -24761,7 +24770,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472" s="1">
         <v>1334</v>
       </c>
@@ -24778,7 +24787,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" hidden="1">
       <c r="A473" s="1">
         <v>1335</v>
       </c>
@@ -24795,7 +24804,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474" s="1">
         <v>1336</v>
       </c>
@@ -24812,7 +24821,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" hidden="1">
       <c r="A475" s="1">
         <v>1338</v>
       </c>
@@ -24829,7 +24838,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" hidden="1">
       <c r="A476" s="1">
         <v>1339</v>
       </c>
@@ -24846,7 +24855,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" hidden="1">
       <c r="A477" s="1">
         <v>1340</v>
       </c>
@@ -24863,7 +24872,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" hidden="1">
       <c r="A478" s="1">
         <v>1341</v>
       </c>
@@ -24880,7 +24889,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" hidden="1">
       <c r="A479" s="1">
         <v>1342</v>
       </c>
@@ -24897,7 +24906,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" hidden="1">
       <c r="A480" s="1">
         <v>1343</v>
       </c>
@@ -24914,7 +24923,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" hidden="1">
       <c r="A481" s="1">
         <v>1344</v>
       </c>
@@ -24931,7 +24940,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" hidden="1">
       <c r="A482" s="1">
         <v>1345</v>
       </c>
@@ -24948,7 +24957,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" hidden="1">
       <c r="A483" s="1">
         <v>1346</v>
       </c>
@@ -24965,7 +24974,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" hidden="1">
       <c r="A484" s="1">
         <v>1347</v>
       </c>
@@ -24982,7 +24991,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" hidden="1">
       <c r="A485" s="1">
         <v>1348</v>
       </c>
@@ -24999,7 +25008,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" hidden="1">
       <c r="A486" s="1">
         <v>1349</v>
       </c>
@@ -25016,7 +25025,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" hidden="1">
       <c r="A487" s="1">
         <v>1350</v>
       </c>
@@ -25033,7 +25042,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" hidden="1">
       <c r="A488" s="1">
         <v>1351</v>
       </c>
@@ -25050,7 +25059,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" hidden="1">
       <c r="A489" s="1">
         <v>1360</v>
       </c>
@@ -25067,7 +25076,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" hidden="1">
       <c r="A490" s="1">
         <v>1361</v>
       </c>
@@ -25084,7 +25093,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" hidden="1">
       <c r="A491" s="1">
         <v>1362</v>
       </c>
@@ -25101,7 +25110,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" hidden="1">
       <c r="A492" s="1">
         <v>1363</v>
       </c>
@@ -25118,7 +25127,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" hidden="1">
       <c r="A493" s="1">
         <v>1364</v>
       </c>
@@ -25135,7 +25144,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" hidden="1">
       <c r="A494" s="1">
         <v>1365</v>
       </c>
@@ -25152,7 +25161,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" hidden="1">
       <c r="A495" s="1">
         <v>1366</v>
       </c>
@@ -25169,7 +25178,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" hidden="1">
       <c r="A496" s="1">
         <v>1367</v>
       </c>
@@ -25186,7 +25195,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" hidden="1">
       <c r="A497" s="1">
         <v>1368</v>
       </c>
@@ -25203,7 +25212,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" hidden="1">
       <c r="A498" s="1">
         <v>1370</v>
       </c>
@@ -25220,7 +25229,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" hidden="1">
       <c r="A499" s="1">
         <v>1371</v>
       </c>
@@ -25237,7 +25246,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" hidden="1">
       <c r="A500" s="1">
         <v>1372</v>
       </c>
@@ -25254,7 +25263,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" hidden="1">
       <c r="A501" s="1">
         <v>1373</v>
       </c>
@@ -25271,7 +25280,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" hidden="1">
       <c r="A502" s="1">
         <v>1374</v>
       </c>
@@ -25288,7 +25297,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" hidden="1">
       <c r="A503" s="1">
         <v>1376</v>
       </c>
@@ -25305,7 +25314,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" hidden="1">
       <c r="A504" s="1">
         <v>1377</v>
       </c>
@@ -25322,7 +25331,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" hidden="1">
       <c r="A505" s="1">
         <v>1378</v>
       </c>
@@ -25339,7 +25348,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" hidden="1">
       <c r="A506" s="1">
         <v>1379</v>
       </c>
@@ -25356,7 +25365,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" hidden="1">
       <c r="A507" s="1">
         <v>1380</v>
       </c>
@@ -25373,7 +25382,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" hidden="1">
       <c r="A508" s="1">
         <v>1381</v>
       </c>
@@ -25390,7 +25399,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" hidden="1">
       <c r="A509" s="1">
         <v>1382</v>
       </c>
@@ -25407,7 +25416,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" hidden="1">
       <c r="A510" s="1">
         <v>1383</v>
       </c>
@@ -25424,7 +25433,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" hidden="1">
       <c r="A511" s="1">
         <v>1384</v>
       </c>
@@ -25441,7 +25450,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" hidden="1">
       <c r="A512" s="1">
         <v>1385</v>
       </c>
@@ -25458,7 +25467,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" hidden="1">
       <c r="A513" s="1">
         <v>1386</v>
       </c>
@@ -25475,7 +25484,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" hidden="1">
       <c r="A514" s="1">
         <v>1387</v>
       </c>
@@ -25492,7 +25501,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" hidden="1">
       <c r="A515" s="1">
         <v>1388</v>
       </c>
@@ -25509,7 +25518,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" hidden="1">
       <c r="A516" s="1">
         <v>1390</v>
       </c>
@@ -25526,7 +25535,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" hidden="1">
       <c r="A517" s="1">
         <v>1391</v>
       </c>
@@ -25543,7 +25552,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" hidden="1">
       <c r="A518" s="1">
         <v>1392</v>
       </c>
@@ -25560,7 +25569,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" hidden="1">
       <c r="A519" s="1">
         <v>1393</v>
       </c>
@@ -25577,7 +25586,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" hidden="1">
       <c r="A520" s="1">
         <v>1394</v>
       </c>
@@ -25594,7 +25603,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" hidden="1">
       <c r="A521" s="1">
         <v>1395</v>
       </c>
@@ -25611,7 +25620,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" hidden="1">
       <c r="A522" s="1">
         <v>1396</v>
       </c>
@@ -25628,7 +25637,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" hidden="1">
       <c r="A523" s="1">
         <v>1397</v>
       </c>
@@ -25645,7 +25654,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" hidden="1">
       <c r="A524" s="1">
         <v>1399</v>
       </c>
@@ -25662,7 +25671,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" hidden="1">
       <c r="A525" s="1">
         <v>1402</v>
       </c>
@@ -25679,7 +25688,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" hidden="1">
       <c r="A526" s="1">
         <v>1403</v>
       </c>
@@ -25696,7 +25705,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" hidden="1">
       <c r="A527" s="1">
         <v>1404</v>
       </c>
@@ -25713,7 +25722,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" hidden="1">
       <c r="A528" s="1">
         <v>1405</v>
       </c>
@@ -25730,7 +25739,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" hidden="1">
       <c r="A529" s="1">
         <v>1406</v>
       </c>
@@ -25747,7 +25756,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" hidden="1">
       <c r="A530" s="1">
         <v>1407</v>
       </c>
@@ -25764,7 +25773,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" hidden="1">
       <c r="A531" s="1">
         <v>1408</v>
       </c>
@@ -25781,7 +25790,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" hidden="1">
       <c r="A532" s="1">
         <v>1409</v>
       </c>
@@ -25798,7 +25807,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" hidden="1">
       <c r="A533" s="1">
         <v>1411</v>
       </c>
@@ -25815,7 +25824,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" hidden="1">
       <c r="A534" s="1">
         <v>1412</v>
       </c>
@@ -25832,7 +25841,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" hidden="1">
       <c r="A535" s="1">
         <v>1413</v>
       </c>
@@ -25849,7 +25858,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" hidden="1">
       <c r="A536" s="1">
         <v>1414</v>
       </c>
@@ -25866,7 +25875,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" hidden="1">
       <c r="A537" s="1">
         <v>1415</v>
       </c>
@@ -25883,7 +25892,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" hidden="1">
       <c r="A538" s="1">
         <v>1417</v>
       </c>
@@ -25900,7 +25909,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" hidden="1">
       <c r="A539" s="1">
         <v>1418</v>
       </c>
@@ -25917,7 +25926,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" hidden="1">
       <c r="A540" s="1">
         <v>1419</v>
       </c>
@@ -25934,7 +25943,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" hidden="1">
       <c r="A541" s="1">
         <v>1420</v>
       </c>
@@ -25951,7 +25960,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" hidden="1">
       <c r="A542" s="1">
         <v>1421</v>
       </c>
@@ -25968,7 +25977,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" hidden="1">
       <c r="A543" s="1">
         <v>1422</v>
       </c>
@@ -25985,7 +25994,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" hidden="1">
       <c r="A544" s="1">
         <v>1424</v>
       </c>
@@ -26002,7 +26011,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" hidden="1">
       <c r="A545" s="1">
         <v>1425</v>
       </c>
@@ -26019,7 +26028,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" hidden="1">
       <c r="A546" s="1">
         <v>1426</v>
       </c>
@@ -26036,7 +26045,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" hidden="1">
       <c r="A547" s="1">
         <v>1427</v>
       </c>
@@ -26053,7 +26062,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" hidden="1">
       <c r="A548" s="1">
         <v>1428</v>
       </c>
@@ -26070,7 +26079,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" hidden="1">
       <c r="A549" s="1">
         <v>1429</v>
       </c>
@@ -26087,7 +26096,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" hidden="1">
       <c r="A550" s="1">
         <v>1432</v>
       </c>
@@ -26104,7 +26113,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" hidden="1">
       <c r="A551" s="1">
         <v>1434</v>
       </c>
@@ -26121,7 +26130,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" hidden="1">
       <c r="A552" s="1">
         <v>1435</v>
       </c>
@@ -26138,7 +26147,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" hidden="1">
       <c r="A553" s="1">
         <v>1437</v>
       </c>
@@ -26155,7 +26164,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" hidden="1">
       <c r="A554" s="1">
         <v>1438</v>
       </c>
@@ -26172,7 +26181,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" hidden="1">
       <c r="A555" s="1">
         <v>1439</v>
       </c>
@@ -26189,7 +26198,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" hidden="1">
       <c r="A556" s="1">
         <v>1440</v>
       </c>
@@ -26206,7 +26215,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" hidden="1">
       <c r="A557" s="1">
         <v>1441</v>
       </c>
@@ -26223,7 +26232,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" hidden="1">
       <c r="A558" s="1">
         <v>1442</v>
       </c>
@@ -26240,7 +26249,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" hidden="1">
       <c r="A559" s="1">
         <v>1444</v>
       </c>
@@ -26257,7 +26266,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" hidden="1">
       <c r="A560" s="1">
         <v>1445</v>
       </c>
@@ -26274,7 +26283,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" hidden="1">
       <c r="A561" s="1">
         <v>1446</v>
       </c>
@@ -26291,7 +26300,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" hidden="1">
       <c r="A562" s="1">
         <v>1447</v>
       </c>
@@ -26308,7 +26317,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" hidden="1">
       <c r="A563" s="1">
         <v>1448</v>
       </c>
@@ -26325,7 +26334,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" hidden="1">
       <c r="A564" s="1">
         <v>1450</v>
       </c>
@@ -26342,7 +26351,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" hidden="1">
       <c r="A565" s="1">
         <v>1451</v>
       </c>
@@ -26359,7 +26368,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" hidden="1">
       <c r="A566" s="1">
         <v>1452</v>
       </c>
@@ -26376,7 +26385,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" hidden="1">
       <c r="A567" s="1">
         <v>1453</v>
       </c>
@@ -26393,7 +26402,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" hidden="1">
       <c r="A568" s="1">
         <v>1454</v>
       </c>
@@ -26410,7 +26419,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" hidden="1">
       <c r="A569" s="1">
         <v>1455</v>
       </c>
@@ -26427,7 +26436,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" hidden="1">
       <c r="A570" s="1">
         <v>1456</v>
       </c>
@@ -26444,7 +26453,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" hidden="1">
       <c r="A571" s="1">
         <v>1458</v>
       </c>
@@ -26461,7 +26470,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" hidden="1">
       <c r="A572" s="1">
         <v>1459</v>
       </c>
@@ -26478,7 +26487,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" hidden="1">
       <c r="A573" s="1">
         <v>1460</v>
       </c>
@@ -26495,7 +26504,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" hidden="1">
       <c r="A574" s="1">
         <v>1461</v>
       </c>
@@ -26512,7 +26521,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" hidden="1">
       <c r="A575" s="1">
         <v>1463</v>
       </c>
@@ -26529,7 +26538,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" hidden="1">
       <c r="A576" s="1">
         <v>1464</v>
       </c>
@@ -26546,7 +26555,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" hidden="1">
       <c r="A577" s="1">
         <v>1465</v>
       </c>
@@ -26563,7 +26572,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" hidden="1">
       <c r="A578" s="1">
         <v>1466</v>
       </c>
@@ -26580,7 +26589,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" hidden="1">
       <c r="A579" s="1">
         <v>1467</v>
       </c>
@@ -26597,7 +26606,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" hidden="1">
       <c r="A580" s="1">
         <v>1468</v>
       </c>
@@ -26614,7 +26623,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" hidden="1">
       <c r="A581" s="1">
         <v>1469</v>
       </c>
@@ -26631,7 +26640,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" hidden="1">
       <c r="A582" s="1">
         <v>1470</v>
       </c>
@@ -26648,7 +26657,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" hidden="1">
       <c r="A583" s="1">
         <v>1471</v>
       </c>
@@ -26665,7 +26674,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" hidden="1">
       <c r="A584" s="1">
         <v>1473</v>
       </c>
@@ -26682,7 +26691,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" hidden="1">
       <c r="A585" s="1">
         <v>1474</v>
       </c>
@@ -26699,7 +26708,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" hidden="1">
       <c r="A586" s="1">
         <v>1475</v>
       </c>
@@ -26716,7 +26725,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" hidden="1">
       <c r="A587" s="1">
         <v>1476</v>
       </c>
@@ -26733,7 +26742,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" hidden="1">
       <c r="A588" s="1">
         <v>1477</v>
       </c>
@@ -26750,7 +26759,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" hidden="1">
       <c r="A589" s="1">
         <v>1478</v>
       </c>
@@ -26767,7 +26776,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" hidden="1">
       <c r="A590" s="1">
         <v>1479</v>
       </c>
@@ -26784,7 +26793,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" hidden="1">
       <c r="A591" s="1">
         <v>1480</v>
       </c>
@@ -26801,7 +26810,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" hidden="1">
       <c r="A592" s="1">
         <v>1482</v>
       </c>
@@ -26818,7 +26827,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" hidden="1">
       <c r="A593" s="1">
         <v>1483</v>
       </c>
@@ -26835,7 +26844,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" hidden="1">
       <c r="A594" s="1">
         <v>1484</v>
       </c>
@@ -26852,7 +26861,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" hidden="1">
       <c r="A595" s="1">
         <v>1485</v>
       </c>
@@ -26869,7 +26878,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" hidden="1">
       <c r="A596" s="1">
         <v>1486</v>
       </c>
@@ -26886,7 +26895,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" hidden="1">
       <c r="A597" s="1">
         <v>1487</v>
       </c>
@@ -26903,7 +26912,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" hidden="1">
       <c r="A598" s="1">
         <v>1488</v>
       </c>
@@ -26920,7 +26929,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" hidden="1">
       <c r="A599" s="1">
         <v>1490</v>
       </c>
@@ -26937,7 +26946,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" hidden="1">
       <c r="A600" s="1">
         <v>1491</v>
       </c>
@@ -26954,7 +26963,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" hidden="1">
       <c r="A601" s="1">
         <v>1492</v>
       </c>
@@ -26971,7 +26980,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" hidden="1">
       <c r="A602" s="1">
         <v>1493</v>
       </c>
@@ -26988,7 +26997,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" hidden="1">
       <c r="A603" s="1">
         <v>1495</v>
       </c>
@@ -27005,7 +27014,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" hidden="1">
       <c r="A604" s="1">
         <v>1496</v>
       </c>
@@ -27022,7 +27031,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" hidden="1">
       <c r="A605" s="1">
         <v>1497</v>
       </c>
@@ -27039,7 +27048,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" hidden="1">
       <c r="A606" s="1">
         <v>1498</v>
       </c>
@@ -27056,7 +27065,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" hidden="1">
       <c r="A607" s="1">
         <v>1499</v>
       </c>
@@ -27073,7 +27082,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" hidden="1">
       <c r="A608" s="1">
         <v>1500</v>
       </c>
@@ -27090,7 +27099,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" hidden="1">
       <c r="A609" s="1">
         <v>1502</v>
       </c>
@@ -27107,7 +27116,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" hidden="1">
       <c r="A610" s="1">
         <v>1503</v>
       </c>
@@ -27124,7 +27133,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" hidden="1">
       <c r="A611" s="1">
         <v>1504</v>
       </c>
@@ -27141,7 +27150,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" hidden="1">
       <c r="A612" s="1">
         <v>1505</v>
       </c>
@@ -27158,7 +27167,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" hidden="1">
       <c r="A613" s="1">
         <v>1506</v>
       </c>
@@ -27175,7 +27184,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" hidden="1">
       <c r="A614" s="1">
         <v>1508</v>
       </c>
@@ -27192,7 +27201,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" hidden="1">
       <c r="A615" s="1">
         <v>1509</v>
       </c>
@@ -27209,7 +27218,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" hidden="1">
       <c r="A616" s="1">
         <v>1510</v>
       </c>
@@ -27226,7 +27235,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" hidden="1">
       <c r="A617" s="1">
         <v>1511</v>
       </c>
@@ -27243,7 +27252,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" hidden="1">
       <c r="A618" s="1">
         <v>1512</v>
       </c>
@@ -27260,7 +27269,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" hidden="1">
       <c r="A619" s="1">
         <v>1513</v>
       </c>
@@ -27277,7 +27286,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" hidden="1">
       <c r="A620" s="1">
         <v>1514</v>
       </c>
@@ -27294,7 +27303,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" hidden="1">
       <c r="A621" s="1">
         <v>1516</v>
       </c>
@@ -27311,7 +27320,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" hidden="1">
       <c r="A622" s="1">
         <v>1517</v>
       </c>
@@ -27328,7 +27337,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" hidden="1">
       <c r="A623" s="1">
         <v>1518</v>
       </c>
@@ -27345,7 +27354,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" hidden="1">
       <c r="A624" s="1">
         <v>1519</v>
       </c>
@@ -27362,7 +27371,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" hidden="1">
       <c r="A625" s="1">
         <v>1520</v>
       </c>
@@ -27379,7 +27388,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" hidden="1">
       <c r="A626" s="1">
         <v>1522</v>
       </c>
@@ -27396,7 +27405,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" hidden="1">
       <c r="A627" s="1">
         <v>1523</v>
       </c>
@@ -27413,7 +27422,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" hidden="1">
       <c r="A628" s="1">
         <v>1524</v>
       </c>
@@ -27430,7 +27439,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" hidden="1">
       <c r="A629" s="1">
         <v>1525</v>
       </c>
@@ -27447,7 +27456,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" hidden="1">
       <c r="A630" s="1">
         <v>1526</v>
       </c>
@@ -27464,7 +27473,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" hidden="1">
       <c r="A631" s="1">
         <v>1527</v>
       </c>
@@ -27481,7 +27490,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" hidden="1">
       <c r="A632" s="1">
         <v>1536</v>
       </c>
@@ -27498,7 +27507,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" hidden="1">
       <c r="A633" s="1">
         <v>1537</v>
       </c>
@@ -27515,7 +27524,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" hidden="1">
       <c r="A634" s="1">
         <v>1538</v>
       </c>
@@ -27532,7 +27541,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" hidden="1">
       <c r="A635" s="1">
         <v>1539</v>
       </c>
@@ -27549,7 +27558,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" hidden="1">
       <c r="A636" s="1">
         <v>1540</v>
       </c>
@@ -27566,7 +27575,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" hidden="1">
       <c r="A637" s="1">
         <v>1543</v>
       </c>
@@ -27583,7 +27592,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" hidden="1">
       <c r="A638" s="1">
         <v>1544</v>
       </c>
@@ -27600,7 +27609,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" hidden="1">
       <c r="A639" s="1">
         <v>1545</v>
       </c>
@@ -27617,7 +27626,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" hidden="1">
       <c r="A640" s="1">
         <v>1546</v>
       </c>
@@ -27634,7 +27643,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" hidden="1">
       <c r="A641" s="1">
         <v>1547</v>
       </c>
@@ -27651,7 +27660,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" hidden="1">
       <c r="A642" s="1">
         <v>1548</v>
       </c>
@@ -27668,7 +27677,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" hidden="1">
       <c r="A643" s="1">
         <v>1549</v>
       </c>
@@ -27685,7 +27694,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" hidden="1">
       <c r="A644" s="1">
         <v>1550</v>
       </c>
@@ -27702,7 +27711,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" hidden="1">
       <c r="A645" s="1">
         <v>1552</v>
       </c>
@@ -27719,7 +27728,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" hidden="1">
       <c r="A646" s="1">
         <v>1553</v>
       </c>
@@ -27736,7 +27745,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" hidden="1">
       <c r="A647" s="1">
         <v>1554</v>
       </c>
@@ -27753,7 +27762,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" hidden="1">
       <c r="A648" s="1">
         <v>1555</v>
       </c>
@@ -27770,7 +27779,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" hidden="1">
       <c r="A649" s="1">
         <v>1556</v>
       </c>
@@ -27787,7 +27796,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" hidden="1">
       <c r="A650" s="1">
         <v>1557</v>
       </c>
@@ -27804,7 +27813,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" hidden="1">
       <c r="A651" s="1">
         <v>1558</v>
       </c>
@@ -27821,7 +27830,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" hidden="1">
       <c r="A652" s="1">
         <v>1559</v>
       </c>
@@ -27838,7 +27847,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" hidden="1">
       <c r="A653" s="1">
         <v>1560</v>
       </c>
@@ -27855,7 +27864,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" hidden="1">
       <c r="A654" s="1">
         <v>1561</v>
       </c>
@@ -27872,7 +27881,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" hidden="1">
       <c r="A655" s="1">
         <v>1562</v>
       </c>
@@ -27889,7 +27898,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" hidden="1">
       <c r="A656" s="1">
         <v>1563</v>
       </c>
@@ -27906,7 +27915,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" hidden="1">
       <c r="A657" s="1">
         <v>1564</v>
       </c>
@@ -27923,7 +27932,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" hidden="1">
       <c r="A658" s="1">
         <v>1565</v>
       </c>
@@ -27940,7 +27949,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" hidden="1">
       <c r="A659" s="1">
         <v>1566</v>
       </c>
@@ -27957,7 +27966,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" hidden="1">
       <c r="A660" s="1">
         <v>1568</v>
       </c>
@@ -27974,7 +27983,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" hidden="1">
       <c r="A661" s="1">
         <v>1569</v>
       </c>
@@ -27991,7 +28000,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" hidden="1">
       <c r="A662" s="1">
         <v>1570</v>
       </c>
@@ -28008,7 +28017,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" hidden="1">
       <c r="A663" s="1">
         <v>1572</v>
       </c>
@@ -28025,7 +28034,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" hidden="1">
       <c r="A664" s="1">
         <v>1573</v>
       </c>
@@ -28042,7 +28051,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" hidden="1">
       <c r="A665" s="1">
         <v>1574</v>
       </c>
@@ -28059,7 +28068,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" hidden="1">
       <c r="A666" s="1">
         <v>1575</v>
       </c>
@@ -28076,7 +28085,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" hidden="1">
       <c r="A667" s="1">
         <v>1576</v>
       </c>
@@ -28093,7 +28102,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" hidden="1">
       <c r="A668" s="1">
         <v>1577</v>
       </c>
@@ -28110,7 +28119,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" hidden="1">
       <c r="A669" s="1">
         <v>1578</v>
       </c>
@@ -28127,7 +28136,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" hidden="1">
       <c r="A670" s="1">
         <v>1579</v>
       </c>
@@ -28144,7 +28153,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" hidden="1">
       <c r="A671" s="1">
         <v>1582</v>
       </c>
@@ -28161,7 +28170,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" hidden="1">
       <c r="A672" s="1">
         <v>1584</v>
       </c>
@@ -28178,7 +28187,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" hidden="1">
       <c r="A673" s="1">
         <v>1585</v>
       </c>
@@ -28195,7 +28204,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" hidden="1">
       <c r="A674" s="1">
         <v>1586</v>
       </c>
@@ -28212,7 +28221,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" hidden="1">
       <c r="A675" s="1">
         <v>1587</v>
       </c>
@@ -28229,7 +28238,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" hidden="1">
       <c r="A676" s="1">
         <v>1589</v>
       </c>
@@ -28246,7 +28255,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" hidden="1">
       <c r="A677" s="1">
         <v>1590</v>
       </c>
@@ -28263,7 +28272,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" hidden="1">
       <c r="A678" s="1">
         <v>1591</v>
       </c>
@@ -28280,7 +28289,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" hidden="1">
       <c r="A679" s="1">
         <v>1594</v>
       </c>
@@ -28297,7 +28306,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" hidden="1">
       <c r="A680" s="1">
         <v>1595</v>
       </c>
@@ -28314,7 +28323,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" hidden="1">
       <c r="A681" s="1">
         <v>1596</v>
       </c>
@@ -28331,7 +28340,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" hidden="1">
       <c r="A682" s="1">
         <v>1597</v>
       </c>
@@ -28348,7 +28357,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" hidden="1">
       <c r="A683" s="1">
         <v>1598</v>
       </c>
@@ -28365,7 +28374,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" hidden="1">
       <c r="A684" s="1">
         <v>1600</v>
       </c>
@@ -28382,7 +28391,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" hidden="1">
       <c r="A685" s="1">
         <v>1601</v>
       </c>
@@ -28399,7 +28408,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" hidden="1">
       <c r="A686" s="1">
         <v>1602</v>
       </c>
@@ -28416,7 +28425,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" hidden="1">
       <c r="A687" s="1">
         <v>1603</v>
       </c>
@@ -28433,7 +28442,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" hidden="1">
       <c r="A688" s="1">
         <v>1604</v>
       </c>
@@ -28450,7 +28459,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" hidden="1">
       <c r="A689" s="1">
         <v>1605</v>
       </c>
@@ -28467,7 +28476,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" hidden="1">
       <c r="A690" s="1">
         <v>1607</v>
       </c>
@@ -28484,7 +28493,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" hidden="1">
       <c r="A691" s="1">
         <v>1608</v>
       </c>
@@ -28501,7 +28510,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" hidden="1">
       <c r="A692" s="1">
         <v>1609</v>
       </c>
@@ -28518,7 +28527,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" hidden="1">
       <c r="A693" s="1">
         <v>1610</v>
       </c>
@@ -28535,7 +28544,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" hidden="1">
       <c r="A694" s="1">
         <v>1611</v>
       </c>
@@ -28552,7 +28561,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" hidden="1">
       <c r="A695" s="1">
         <v>1612</v>
       </c>
@@ -28569,7 +28578,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" hidden="1">
       <c r="A696" s="1">
         <v>1614</v>
       </c>
@@ -28586,7 +28595,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" hidden="1">
       <c r="A697" s="1">
         <v>1615</v>
       </c>
@@ -28603,7 +28612,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" hidden="1">
       <c r="A698" s="1">
         <v>1616</v>
       </c>
@@ -28620,7 +28629,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" hidden="1">
       <c r="A699" s="1">
         <v>1618</v>
       </c>
@@ -28637,7 +28646,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" hidden="1">
       <c r="A700" s="1">
         <v>1619</v>
       </c>
@@ -28654,7 +28663,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" hidden="1">
       <c r="A701" s="1">
         <v>1620</v>
       </c>
@@ -28671,7 +28680,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" hidden="1">
       <c r="A702" s="1">
         <v>1621</v>
       </c>
@@ -28688,7 +28697,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" hidden="1">
       <c r="A703" s="1">
         <v>1622</v>
       </c>
@@ -28705,7 +28714,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" hidden="1">
       <c r="A704" s="1">
         <v>1623</v>
       </c>
@@ -28722,7 +28731,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" hidden="1">
       <c r="A705" s="1">
         <v>1624</v>
       </c>
@@ -28739,7 +28748,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" hidden="1">
       <c r="A706" s="1">
         <v>1626</v>
       </c>
@@ -28756,7 +28765,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" hidden="1">
       <c r="A707" s="1">
         <v>1627</v>
       </c>
@@ -28773,7 +28782,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" hidden="1">
       <c r="A708" s="1">
         <v>1628</v>
       </c>
@@ -28790,7 +28799,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" hidden="1">
       <c r="A709" s="1">
         <v>1629</v>
       </c>
@@ -28807,7 +28816,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" hidden="1">
       <c r="A710" s="1">
         <v>1630</v>
       </c>
@@ -28824,7 +28833,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" hidden="1">
       <c r="A711" s="1">
         <v>1631</v>
       </c>
@@ -28841,7 +28850,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" hidden="1">
       <c r="A712" s="1">
         <v>1632</v>
       </c>
@@ -28858,7 +28867,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" hidden="1">
       <c r="A713" s="1">
         <v>1634</v>
       </c>
@@ -28875,7 +28884,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" hidden="1">
       <c r="A714" s="1">
         <v>1635</v>
       </c>
@@ -28892,7 +28901,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" hidden="1">
       <c r="A715" s="1">
         <v>1636</v>
       </c>
@@ -28909,7 +28918,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" hidden="1">
       <c r="A716" s="1">
         <v>1637</v>
       </c>
@@ -28926,7 +28935,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" hidden="1">
       <c r="A717" s="1">
         <v>1639</v>
       </c>
@@ -28943,7 +28952,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" hidden="1">
       <c r="A718" s="1">
         <v>1640</v>
       </c>
@@ -28960,7 +28969,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" hidden="1">
       <c r="A719" s="1">
         <v>1641</v>
       </c>
@@ -28977,7 +28986,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" hidden="1">
       <c r="A720" s="1">
         <v>1643</v>
       </c>
@@ -28994,7 +29003,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" hidden="1">
       <c r="A721" s="1">
         <v>1644</v>
       </c>
@@ -29011,7 +29020,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" hidden="1">
       <c r="A722" s="1">
         <v>1645</v>
       </c>
@@ -29028,7 +29037,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" hidden="1">
       <c r="A723" s="1">
         <v>1647</v>
       </c>
@@ -29045,7 +29054,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" hidden="1">
       <c r="A724" s="1">
         <v>1648</v>
       </c>
@@ -29062,7 +29071,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" hidden="1">
       <c r="A725" s="1">
         <v>1650</v>
       </c>
@@ -29079,7 +29088,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" hidden="1">
       <c r="A726" s="1">
         <v>1651</v>
       </c>
@@ -29096,7 +29105,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" hidden="1">
       <c r="A727" s="1">
         <v>1652</v>
       </c>
@@ -29113,7 +29122,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" hidden="1">
       <c r="A728" s="1">
         <v>1653</v>
       </c>
@@ -29130,7 +29139,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" hidden="1">
       <c r="A729" s="1">
         <v>1655</v>
       </c>
@@ -29147,7 +29156,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" hidden="1">
       <c r="A730" s="1">
         <v>1656</v>
       </c>
@@ -29164,7 +29173,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" hidden="1">
       <c r="A731" s="1">
         <v>1657</v>
       </c>
@@ -29181,7 +29190,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" hidden="1">
       <c r="A732" s="1">
         <v>1658</v>
       </c>
@@ -29198,7 +29207,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" hidden="1">
       <c r="A733" s="1">
         <v>1660</v>
       </c>
@@ -29215,7 +29224,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" hidden="1">
       <c r="A734" s="1">
         <v>1661</v>
       </c>
@@ -29232,7 +29241,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" hidden="1">
       <c r="A735" s="1">
         <v>1662</v>
       </c>
@@ -29249,7 +29258,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" hidden="1">
       <c r="A736" s="1">
         <v>1664</v>
       </c>
@@ -29266,7 +29275,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" hidden="1">
       <c r="A737" s="1">
         <v>1665</v>
       </c>
@@ -29283,7 +29292,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" hidden="1">
       <c r="A738" s="1">
         <v>1666</v>
       </c>
@@ -29300,7 +29309,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" hidden="1">
       <c r="A739" s="1">
         <v>1668</v>
       </c>
@@ -29317,7 +29326,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" hidden="1">
       <c r="A740" s="1">
         <v>1669</v>
       </c>
@@ -29334,7 +29343,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" hidden="1">
       <c r="A741" s="1">
         <v>1670</v>
       </c>
@@ -29351,7 +29360,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" hidden="1">
       <c r="A742" s="1">
         <v>1671</v>
       </c>
@@ -29368,7 +29377,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" hidden="1">
       <c r="A743" s="1">
         <v>1672</v>
       </c>
@@ -29385,7 +29394,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" hidden="1">
       <c r="A744" s="1">
         <v>1674</v>
       </c>
@@ -29402,7 +29411,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" hidden="1">
       <c r="A745" s="1">
         <v>1675</v>
       </c>
@@ -29419,7 +29428,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" hidden="1">
       <c r="A746" s="1">
         <v>1676</v>
       </c>
@@ -29436,7 +29445,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" hidden="1">
       <c r="A747" s="1">
         <v>1677</v>
       </c>
@@ -29453,7 +29462,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" hidden="1">
       <c r="A748" s="1">
         <v>1678</v>
       </c>
@@ -29470,7 +29479,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" hidden="1">
       <c r="A749" s="1">
         <v>1679</v>
       </c>
@@ -29487,7 +29496,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" hidden="1">
       <c r="A750" s="1">
         <v>1680</v>
       </c>
@@ -29504,7 +29513,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" hidden="1">
       <c r="A751" s="1">
         <v>1681</v>
       </c>
@@ -29521,7 +29530,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" hidden="1">
       <c r="A752" s="1">
         <v>1682</v>
       </c>
@@ -29538,7 +29547,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" hidden="1">
       <c r="A753" s="1">
         <v>1683</v>
       </c>
@@ -29555,7 +29564,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" hidden="1">
       <c r="A754" s="1">
         <v>1685</v>
       </c>
@@ -29572,7 +29581,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" hidden="1">
       <c r="A755" s="1">
         <v>1686</v>
       </c>
@@ -29589,7 +29598,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" hidden="1">
       <c r="A756" s="1">
         <v>1687</v>
       </c>
@@ -29606,7 +29615,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" hidden="1">
       <c r="A757" s="1">
         <v>1688</v>
       </c>
@@ -29623,7 +29632,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" hidden="1">
       <c r="A758" s="1">
         <v>1689</v>
       </c>
@@ -29640,7 +29649,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" hidden="1">
       <c r="A759" s="1">
         <v>1690</v>
       </c>
@@ -29657,7 +29666,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" hidden="1">
       <c r="A760" s="1">
         <v>1691</v>
       </c>
@@ -29674,7 +29683,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" hidden="1">
       <c r="A761" s="1">
         <v>1693</v>
       </c>
@@ -29691,7 +29700,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" hidden="1">
       <c r="A762" s="1">
         <v>1694</v>
       </c>
@@ -29708,7 +29717,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" hidden="1">
       <c r="A763" s="1">
         <v>1695</v>
       </c>
@@ -29725,7 +29734,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" hidden="1">
       <c r="A764" s="1">
         <v>1697</v>
       </c>
@@ -29742,7 +29751,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" hidden="1">
       <c r="A765" s="1">
         <v>1698</v>
       </c>
@@ -29759,7 +29768,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" hidden="1">
       <c r="A766" s="1">
         <v>1699</v>
       </c>
@@ -29776,7 +29785,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" hidden="1">
       <c r="A767" s="1">
         <v>1700</v>
       </c>
@@ -29793,7 +29802,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" hidden="1">
       <c r="A768" s="1">
         <v>1702</v>
       </c>
@@ -29810,7 +29819,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" hidden="1">
       <c r="A769" s="1">
         <v>1703</v>
       </c>
@@ -29827,7 +29836,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" hidden="1">
       <c r="A770" s="1">
         <v>1704</v>
       </c>
@@ -29844,7 +29853,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" hidden="1">
       <c r="A771" s="1">
         <v>1705</v>
       </c>
@@ -29861,7 +29870,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" hidden="1">
       <c r="A772" s="1">
         <v>1706</v>
       </c>
@@ -29878,7 +29887,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" hidden="1">
       <c r="A773" s="1">
         <v>1707</v>
       </c>
@@ -29895,7 +29904,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" hidden="1">
       <c r="A774" s="1">
         <v>1708</v>
       </c>
@@ -29912,7 +29921,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" hidden="1">
       <c r="A775" s="1">
         <v>1711</v>
       </c>
@@ -29929,7 +29938,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" hidden="1">
       <c r="A776" s="1">
         <v>1712</v>
       </c>
@@ -29946,7 +29955,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" hidden="1">
       <c r="A777" s="1">
         <v>1713</v>
       </c>
@@ -29963,7 +29972,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" hidden="1">
       <c r="A778" s="1">
         <v>1714</v>
       </c>
@@ -29980,7 +29989,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" hidden="1">
       <c r="A779" s="1">
         <v>1715</v>
       </c>
@@ -29997,7 +30006,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" hidden="1">
       <c r="A780" s="1">
         <v>1716</v>
       </c>
@@ -30014,7 +30023,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" hidden="1">
       <c r="A781" s="1">
         <v>1718</v>
       </c>
@@ -30031,7 +30040,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" hidden="1">
       <c r="A782" s="1">
         <v>1719</v>
       </c>
@@ -30048,7 +30057,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" hidden="1">
       <c r="A783" s="1">
         <v>1720</v>
       </c>
@@ -30065,7 +30074,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" hidden="1">
       <c r="A784" s="1">
         <v>1721</v>
       </c>
@@ -30082,7 +30091,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" hidden="1">
       <c r="A785" s="1">
         <v>1722</v>
       </c>
@@ -30099,7 +30108,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" hidden="1">
       <c r="A786" s="1">
         <v>1724</v>
       </c>
@@ -30116,7 +30125,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" hidden="1">
       <c r="A787" s="1">
         <v>1725</v>
       </c>
@@ -30133,7 +30142,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" hidden="1">
       <c r="A788" s="1">
         <v>1726</v>
       </c>
@@ -30150,7 +30159,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" hidden="1">
       <c r="A789" s="1">
         <v>1727</v>
       </c>
@@ -30167,7 +30176,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" hidden="1">
       <c r="A790" s="1">
         <v>1728</v>
       </c>
@@ -30184,7 +30193,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" hidden="1">
       <c r="A791" s="1">
         <v>1729</v>
       </c>
@@ -30201,7 +30210,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" hidden="1">
       <c r="A792" s="1">
         <v>1730</v>
       </c>
@@ -30218,7 +30227,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" hidden="1">
       <c r="A793" s="1">
         <v>1732</v>
       </c>
@@ -30235,7 +30244,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" hidden="1">
       <c r="A794" s="1">
         <v>1733</v>
       </c>
@@ -30252,7 +30261,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" hidden="1">
       <c r="A795" s="1">
         <v>1734</v>
       </c>
@@ -30269,7 +30278,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" hidden="1">
       <c r="A796" s="1">
         <v>1735</v>
       </c>
@@ -30286,7 +30295,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" hidden="1">
       <c r="A797" s="1">
         <v>1736</v>
       </c>
@@ -30303,7 +30312,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" hidden="1">
       <c r="A798" s="1">
         <v>1738</v>
       </c>
@@ -30320,7 +30329,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" hidden="1">
       <c r="A799" s="1">
         <v>1739</v>
       </c>
@@ -30337,7 +30346,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" hidden="1">
       <c r="A800" s="1">
         <v>1740</v>
       </c>
@@ -30354,7 +30363,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" hidden="1">
       <c r="A801" s="1">
         <v>1741</v>
       </c>
@@ -30371,7 +30380,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" hidden="1">
       <c r="A802" s="1">
         <v>1742</v>
       </c>
@@ -30388,7 +30397,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" hidden="1">
       <c r="A803" s="1">
         <v>1743</v>
       </c>
@@ -30405,7 +30414,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" hidden="1">
       <c r="A804" s="1">
         <v>1744</v>
       </c>
@@ -30422,7 +30431,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" hidden="1">
       <c r="A805" s="1">
         <v>1745</v>
       </c>
@@ -30439,7 +30448,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" hidden="1">
       <c r="A806" s="1">
         <v>1746</v>
       </c>
@@ -30456,7 +30465,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" hidden="1">
       <c r="A807" s="1">
         <v>1747</v>
       </c>
@@ -30473,7 +30482,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" hidden="1">
       <c r="A808" s="1">
         <v>1748</v>
       </c>
@@ -30490,7 +30499,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" hidden="1">
       <c r="A809" s="1">
         <v>1749</v>
       </c>
@@ -30507,7 +30516,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" hidden="1">
       <c r="A810" s="1">
         <v>1750</v>
       </c>
@@ -30524,7 +30533,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" hidden="1">
       <c r="A811" s="1">
         <v>1751</v>
       </c>
@@ -30541,7 +30550,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" hidden="1">
       <c r="A812" s="1">
         <v>1753</v>
       </c>
@@ -30558,7 +30567,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" hidden="1">
       <c r="A813" s="1">
         <v>1754</v>
       </c>
@@ -30575,7 +30584,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" hidden="1">
       <c r="A814" s="1">
         <v>1756</v>
       </c>
@@ -30592,7 +30601,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" hidden="1">
       <c r="A815" s="1">
         <v>1757</v>
       </c>
@@ -30609,7 +30618,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" hidden="1">
       <c r="A816" s="1">
         <v>1758</v>
       </c>
@@ -30626,7 +30635,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" hidden="1">
       <c r="A817" s="1">
         <v>1759</v>
       </c>
@@ -30643,7 +30652,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" hidden="1">
       <c r="A818" s="1">
         <v>1760</v>
       </c>
@@ -30660,7 +30669,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" hidden="1">
       <c r="A819" s="1">
         <v>1761</v>
       </c>
@@ -30677,7 +30686,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" hidden="1">
       <c r="A820" s="1">
         <v>1762</v>
       </c>
@@ -30694,7 +30703,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" hidden="1">
       <c r="A821" s="1">
         <v>1763</v>
       </c>
@@ -30711,7 +30720,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" hidden="1">
       <c r="A822" s="1">
         <v>1764</v>
       </c>
@@ -30728,7 +30737,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" hidden="1">
       <c r="A823" s="1">
         <v>1765</v>
       </c>
@@ -30745,7 +30754,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" hidden="1">
       <c r="A824" s="1">
         <v>1767</v>
       </c>
@@ -30762,7 +30771,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" hidden="1">
       <c r="A825" s="1">
         <v>1768</v>
       </c>
@@ -30779,7 +30788,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" hidden="1">
       <c r="A826" s="1">
         <v>1770</v>
       </c>
@@ -30796,7 +30805,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" hidden="1">
       <c r="A827" s="1">
         <v>1771</v>
       </c>
@@ -30813,7 +30822,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" hidden="1">
       <c r="A828" s="1">
         <v>1772</v>
       </c>
@@ -30830,7 +30839,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" hidden="1">
       <c r="A829" s="1">
         <v>1773</v>
       </c>
@@ -30847,7 +30856,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" hidden="1">
       <c r="A830" s="1">
         <v>1774</v>
       </c>
@@ -30864,7 +30873,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" hidden="1">
       <c r="A831" s="1">
         <v>1775</v>
       </c>
@@ -30881,7 +30890,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" hidden="1">
       <c r="A832" s="1">
         <v>1776</v>
       </c>
@@ -30898,7 +30907,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" hidden="1">
       <c r="A833" s="1">
         <v>1777</v>
       </c>
@@ -30915,7 +30924,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" hidden="1">
       <c r="A834" s="1">
         <v>1778</v>
       </c>
@@ -30932,7 +30941,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" hidden="1">
       <c r="A835" s="1">
         <v>1779</v>
       </c>
@@ -30949,7 +30958,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" hidden="1">
       <c r="A836" s="1">
         <v>1780</v>
       </c>
@@ -30966,7 +30975,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" hidden="1">
       <c r="A837" s="1">
         <v>1781</v>
       </c>
@@ -30983,7 +30992,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" hidden="1">
       <c r="A838" s="1">
         <v>1783</v>
       </c>
@@ -31000,7 +31009,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" hidden="1">
       <c r="A839" s="1">
         <v>1784</v>
       </c>
@@ -31017,7 +31026,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" hidden="1">
       <c r="A840" s="1">
         <v>1785</v>
       </c>
@@ -31034,7 +31043,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" hidden="1">
       <c r="A841" s="1">
         <v>1786</v>
       </c>
@@ -31051,7 +31060,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" hidden="1">
       <c r="A842" s="1">
         <v>1788</v>
       </c>
@@ -31068,7 +31077,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" hidden="1">
       <c r="A843" s="1">
         <v>1789</v>
       </c>
@@ -31085,7 +31094,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" hidden="1">
       <c r="A844" s="1">
         <v>1790</v>
       </c>
@@ -31102,7 +31111,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" hidden="1">
       <c r="A845" s="1">
         <v>1791</v>
       </c>
@@ -31119,7 +31128,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" hidden="1">
       <c r="A846" s="1">
         <v>1794</v>
       </c>
@@ -31136,7 +31145,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" hidden="1">
       <c r="A847" s="1">
         <v>1795</v>
       </c>
@@ -31153,7 +31162,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" hidden="1">
       <c r="A848" s="1">
         <v>1796</v>
       </c>
@@ -31170,7 +31179,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" hidden="1">
       <c r="A849" s="1">
         <v>1797</v>
       </c>
@@ -31187,7 +31196,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" hidden="1">
       <c r="A850" s="1">
         <v>1798</v>
       </c>
@@ -31204,7 +31213,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" hidden="1">
       <c r="A851" s="1">
         <v>1799</v>
       </c>
@@ -31221,7 +31230,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" hidden="1">
       <c r="A852" s="1">
         <v>1801</v>
       </c>
@@ -31238,7 +31247,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" hidden="1">
       <c r="A853" s="1">
         <v>1802</v>
       </c>
@@ -31255,7 +31264,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" hidden="1">
       <c r="A854" s="1">
         <v>1803</v>
       </c>
@@ -31272,7 +31281,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" hidden="1">
       <c r="A855" s="1">
         <v>1804</v>
       </c>
@@ -31289,7 +31298,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" hidden="1">
       <c r="A856" s="1">
         <v>1806</v>
       </c>
@@ -31306,7 +31315,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" hidden="1">
       <c r="A857" s="1">
         <v>1807</v>
       </c>
@@ -31323,7 +31332,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" hidden="1">
       <c r="A858" s="1">
         <v>1808</v>
       </c>
@@ -31340,7 +31349,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" hidden="1">
       <c r="A859" s="1">
         <v>1809</v>
       </c>
@@ -31357,7 +31366,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" hidden="1">
       <c r="A860" s="1">
         <v>1810</v>
       </c>
@@ -31374,7 +31383,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" hidden="1">
       <c r="A861" s="1">
         <v>1811</v>
       </c>
@@ -31391,7 +31400,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" hidden="1">
       <c r="A862" s="1">
         <v>1812</v>
       </c>
@@ -31408,7 +31417,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" hidden="1">
       <c r="A863" s="1">
         <v>1813</v>
       </c>
@@ -31425,7 +31434,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" hidden="1">
       <c r="A864" s="1">
         <v>1815</v>
       </c>
@@ -31442,7 +31451,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" hidden="1">
       <c r="A865" s="1">
         <v>1816</v>
       </c>
@@ -31459,7 +31468,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" hidden="1">
       <c r="A866" s="1">
         <v>1817</v>
       </c>
@@ -31476,7 +31485,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" hidden="1">
       <c r="A867" s="1">
         <v>1818</v>
       </c>
@@ -31493,7 +31502,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" hidden="1">
       <c r="A868" s="1">
         <v>1819</v>
       </c>
@@ -31510,7 +31519,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" hidden="1">
       <c r="A869" s="1">
         <v>1820</v>
       </c>
@@ -31527,7 +31536,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" hidden="1">
       <c r="A870" s="1">
         <v>1822</v>
       </c>
@@ -31544,7 +31553,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" hidden="1">
       <c r="A871" s="1">
         <v>1823</v>
       </c>
@@ -31561,7 +31570,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" hidden="1">
       <c r="A872" s="1">
         <v>1824</v>
       </c>
@@ -31578,7 +31587,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" hidden="1">
       <c r="A873" s="1">
         <v>1825</v>
       </c>
@@ -31595,7 +31604,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" hidden="1">
       <c r="A874" s="1">
         <v>1826</v>
       </c>
@@ -31612,7 +31621,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" hidden="1">
       <c r="A875" s="1">
         <v>1828</v>
       </c>
@@ -31629,7 +31638,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" hidden="1">
       <c r="A876" s="1">
         <v>1829</v>
       </c>
@@ -31646,7 +31655,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" hidden="1">
       <c r="A877" s="1">
         <v>1830</v>
       </c>
@@ -31663,7 +31672,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" hidden="1">
       <c r="A878" s="1">
         <v>1831</v>
       </c>
@@ -31680,7 +31689,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" hidden="1">
       <c r="A879" s="1">
         <v>1832</v>
       </c>
@@ -31697,7 +31706,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" hidden="1">
       <c r="A880" s="1">
         <v>1834</v>
       </c>
@@ -31714,7 +31723,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" hidden="1">
       <c r="A881" s="1">
         <v>1835</v>
       </c>
@@ -31731,7 +31740,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" hidden="1">
       <c r="A882" s="1">
         <v>1836</v>
       </c>
@@ -31748,7 +31757,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" hidden="1">
       <c r="A883" s="1">
         <v>1837</v>
       </c>
@@ -31765,7 +31774,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" hidden="1">
       <c r="A884" s="1">
         <v>1838</v>
       </c>
@@ -31782,7 +31791,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" hidden="1">
       <c r="A885" s="1">
         <v>1839</v>
       </c>
@@ -31799,7 +31808,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" hidden="1">
       <c r="A886" s="1">
         <v>1840</v>
       </c>
@@ -31816,7 +31825,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" hidden="1">
       <c r="A887" s="1">
         <v>1841</v>
       </c>
@@ -31833,7 +31842,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" hidden="1">
       <c r="A888" s="1">
         <v>1842</v>
       </c>
@@ -31850,7 +31859,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" hidden="1">
       <c r="A889" s="1">
         <v>1843</v>
       </c>
@@ -31867,7 +31876,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" hidden="1">
       <c r="A890" s="1">
         <v>1844</v>
       </c>
@@ -31884,7 +31893,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" hidden="1">
       <c r="A891" s="1">
         <v>1846</v>
       </c>
@@ -31901,7 +31910,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" hidden="1">
       <c r="A892" s="1">
         <v>1847</v>
       </c>
@@ -31918,7 +31927,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" hidden="1">
       <c r="A893" s="1">
         <v>1848</v>
       </c>
@@ -31935,7 +31944,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" hidden="1">
       <c r="A894" s="1">
         <v>1849</v>
       </c>
@@ -31952,7 +31961,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" hidden="1">
       <c r="A895" s="1">
         <v>1851</v>
       </c>
@@ -31969,7 +31978,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" hidden="1">
       <c r="A896" s="1">
         <v>1852</v>
       </c>
@@ -31986,7 +31995,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" hidden="1">
       <c r="A897" s="1">
         <v>1853</v>
       </c>
@@ -32003,7 +32012,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" hidden="1">
       <c r="A898" s="1">
         <v>1854</v>
       </c>
@@ -32020,7 +32029,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" hidden="1">
       <c r="A899" s="1">
         <v>1855</v>
       </c>
@@ -32037,7 +32046,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" hidden="1">
       <c r="A900" s="1">
         <v>1857</v>
       </c>
@@ -32054,7 +32063,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" hidden="1">
       <c r="A901" s="1">
         <v>1858</v>
       </c>
@@ -32071,7 +32080,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" hidden="1">
       <c r="A902" s="1">
         <v>1859</v>
       </c>
@@ -32088,7 +32097,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" hidden="1">
       <c r="A903" s="1">
         <v>1860</v>
       </c>
@@ -32105,7 +32114,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" hidden="1">
       <c r="A904" s="1">
         <v>1861</v>
       </c>
@@ -32122,7 +32131,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" hidden="1">
       <c r="A905" s="1">
         <v>1862</v>
       </c>
@@ -32139,7 +32148,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="906" spans="1:5">
+    <row r="906" spans="1:5" hidden="1">
       <c r="A906" s="1">
         <v>1863</v>
       </c>
@@ -32156,7 +32165,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="907" spans="1:5">
+    <row r="907" spans="1:5" hidden="1">
       <c r="A907" s="1">
         <v>1353</v>
       </c>
@@ -32173,7 +32182,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="908" spans="1:5">
+    <row r="908" spans="1:5" hidden="1">
       <c r="A908" s="1">
         <v>1354</v>
       </c>
@@ -32190,7 +32199,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="909" spans="1:5">
+    <row r="909" spans="1:5" hidden="1">
       <c r="A909" s="1">
         <v>1355</v>
       </c>
@@ -32207,7 +32216,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="910" spans="1:5">
+    <row r="910" spans="1:5" hidden="1">
       <c r="A910" s="1">
         <v>1356</v>
       </c>
@@ -32224,7 +32233,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="911" spans="1:5">
+    <row r="911" spans="1:5" hidden="1">
       <c r="A911" s="1">
         <v>1357</v>
       </c>
@@ -32241,7 +32250,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="912" spans="1:5">
+    <row r="912" spans="1:5" hidden="1">
       <c r="A912" s="1">
         <v>1358</v>
       </c>
@@ -32258,7 +32267,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913" spans="1:6" hidden="1">
       <c r="A913" s="1">
         <v>1529</v>
       </c>
@@ -32275,7 +32284,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
+    <row r="914" spans="1:6" hidden="1">
       <c r="A914" s="1">
         <v>1530</v>
       </c>
@@ -32292,7 +32301,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915" spans="1:6" hidden="1">
       <c r="A915" s="1">
         <v>1531</v>
       </c>
@@ -32309,7 +32318,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916" spans="1:6" hidden="1">
       <c r="A916" s="1">
         <v>1532</v>
       </c>
@@ -32326,7 +32335,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="917" spans="1:6">
+    <row r="917" spans="1:6" hidden="1">
       <c r="A917" s="1">
         <v>1533</v>
       </c>
@@ -32343,7 +32352,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
+    <row r="918" spans="1:6" hidden="1">
       <c r="A918" s="1">
         <v>1534</v>
       </c>
@@ -32360,7 +32369,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="919" spans="1:6">
+    <row r="919" spans="1:6" hidden="1">
       <c r="A919" s="1">
         <v>1225</v>
       </c>
@@ -32377,7 +32386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
+    <row r="920" spans="1:6" hidden="1">
       <c r="A920" s="1">
         <v>1226</v>
       </c>
@@ -32394,7 +32403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:6">
+    <row r="921" spans="1:6" hidden="1">
       <c r="A921" s="1">
         <v>1227</v>
       </c>
@@ -32411,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:6">
+    <row r="922" spans="1:6" hidden="1">
       <c r="A922" s="1">
         <v>1430</v>
       </c>
@@ -32428,7 +32437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923" spans="1:6" hidden="1">
       <c r="A923" s="1">
         <v>1024</v>
       </c>
@@ -32446,7 +32455,7 @@
       </c>
       <c r="F923" s="1"/>
     </row>
-    <row r="924" spans="1:6">
+    <row r="924" spans="1:6" hidden="1">
       <c r="A924" s="1">
         <v>1038</v>
       </c>
@@ -32464,7 +32473,7 @@
       </c>
       <c r="F924" s="1"/>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925" spans="1:6" hidden="1">
       <c r="A925" s="1">
         <v>1042</v>
       </c>
@@ -32482,7 +32491,7 @@
       </c>
       <c r="F925" s="1"/>
     </row>
-    <row r="926" spans="1:6">
+    <row r="926" spans="1:6" hidden="1">
       <c r="A926" s="1">
         <v>1051</v>
       </c>
@@ -32500,7 +32509,7 @@
       </c>
       <c r="F926" s="1"/>
     </row>
-    <row r="927" spans="1:6">
+    <row r="927" spans="1:6" hidden="1">
       <c r="A927" s="1">
         <v>1055</v>
       </c>
@@ -32518,7 +32527,7 @@
       </c>
       <c r="F927" s="1"/>
     </row>
-    <row r="928" spans="1:6">
+    <row r="928" spans="1:6" hidden="1">
       <c r="A928" s="1">
         <v>1059</v>
       </c>
@@ -32536,7 +32545,7 @@
       </c>
       <c r="F928" s="1"/>
     </row>
-    <row r="929" spans="1:6">
+    <row r="929" spans="1:6" hidden="1">
       <c r="A929" s="1">
         <v>1062</v>
       </c>
@@ -32554,7 +32563,7 @@
       </c>
       <c r="F929" s="1"/>
     </row>
-    <row r="930" spans="1:6">
+    <row r="930" spans="1:6" hidden="1">
       <c r="A930" s="1">
         <v>1067</v>
       </c>
@@ -32572,7 +32581,7 @@
       </c>
       <c r="F930" s="1"/>
     </row>
-    <row r="931" spans="1:6">
+    <row r="931" spans="1:6" hidden="1">
       <c r="A931" s="1">
         <v>1074</v>
       </c>
@@ -32590,7 +32599,7 @@
       </c>
       <c r="F931" s="1"/>
     </row>
-    <row r="932" spans="1:6">
+    <row r="932" spans="1:6" hidden="1">
       <c r="A932" s="1">
         <v>1080</v>
       </c>
@@ -32608,7 +32617,7 @@
       </c>
       <c r="F932" s="1"/>
     </row>
-    <row r="933" spans="1:6">
+    <row r="933" spans="1:6" hidden="1">
       <c r="A933" s="1">
         <v>1086</v>
       </c>
@@ -32626,7 +32635,7 @@
       </c>
       <c r="F933" s="1"/>
     </row>
-    <row r="934" spans="1:6">
+    <row r="934" spans="1:6" hidden="1">
       <c r="A934" s="1">
         <v>1094</v>
       </c>
@@ -32644,7 +32653,7 @@
       </c>
       <c r="F934" s="1"/>
     </row>
-    <row r="935" spans="1:6">
+    <row r="935" spans="1:6" hidden="1">
       <c r="A935" s="1">
         <v>1104</v>
       </c>
@@ -32662,7 +32671,7 @@
       </c>
       <c r="F935" s="1"/>
     </row>
-    <row r="936" spans="1:6">
+    <row r="936" spans="1:6" hidden="1">
       <c r="A936" s="1">
         <v>1111</v>
       </c>
@@ -32680,7 +32689,7 @@
       </c>
       <c r="F936" s="1"/>
     </row>
-    <row r="937" spans="1:6">
+    <row r="937" spans="1:6" hidden="1">
       <c r="A937" s="1">
         <v>1117</v>
       </c>
@@ -32698,7 +32707,7 @@
       </c>
       <c r="F937" s="1"/>
     </row>
-    <row r="938" spans="1:6">
+    <row r="938" spans="1:6" hidden="1">
       <c r="A938" s="1">
         <v>1125</v>
       </c>
@@ -32716,7 +32725,7 @@
       </c>
       <c r="F938" s="1"/>
     </row>
-    <row r="939" spans="1:6">
+    <row r="939" spans="1:6" hidden="1">
       <c r="A939" s="1">
         <v>1131</v>
       </c>
@@ -32734,7 +32743,7 @@
       </c>
       <c r="F939" s="1"/>
     </row>
-    <row r="940" spans="1:6">
+    <row r="940" spans="1:6" hidden="1">
       <c r="A940" s="1">
         <v>1137</v>
       </c>
@@ -32752,7 +32761,7 @@
       </c>
       <c r="F940" s="1"/>
     </row>
-    <row r="941" spans="1:6">
+    <row r="941" spans="1:6" hidden="1">
       <c r="A941" s="1">
         <v>1140</v>
       </c>
@@ -32770,7 +32779,7 @@
       </c>
       <c r="F941" s="1"/>
     </row>
-    <row r="942" spans="1:6">
+    <row r="942" spans="1:6" hidden="1">
       <c r="A942" s="1">
         <v>1148</v>
       </c>
@@ -32787,7 +32796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:6">
+    <row r="943" spans="1:6" hidden="1">
       <c r="A943" s="1">
         <v>1155</v>
       </c>
@@ -32804,7 +32813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:6">
+    <row r="944" spans="1:6" hidden="1">
       <c r="A944" s="1">
         <v>1161</v>
       </c>
@@ -32821,7 +32830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" spans="1:5" hidden="1">
       <c r="A945" s="1">
         <v>1168</v>
       </c>
@@ -32838,7 +32847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" spans="1:5" hidden="1">
       <c r="A946" s="1">
         <v>1173</v>
       </c>
@@ -32855,7 +32864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" spans="1:5" hidden="1">
       <c r="A947" s="1">
         <v>1178</v>
       </c>
@@ -32872,7 +32881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:5">
+    <row r="948" spans="1:5" hidden="1">
       <c r="A948" s="1">
         <v>1184</v>
       </c>
@@ -32889,7 +32898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:5">
+    <row r="949" spans="1:5" hidden="1">
       <c r="A949" s="1">
         <v>1188</v>
       </c>
@@ -32906,7 +32915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:5">
+    <row r="950" spans="1:5" hidden="1">
       <c r="A950" s="1">
         <v>1192</v>
       </c>
@@ -32923,7 +32932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" hidden="1">
       <c r="A951" s="1">
         <v>1197</v>
       </c>
@@ -32940,7 +32949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" hidden="1">
       <c r="A952" s="1">
         <v>1205</v>
       </c>
@@ -32957,7 +32966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" spans="1:5" hidden="1">
       <c r="A953" s="1">
         <v>1209</v>
       </c>
@@ -32974,7 +32983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" hidden="1">
       <c r="A954" s="1">
         <v>1218</v>
       </c>
@@ -32991,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:5">
+    <row r="955" spans="1:5" hidden="1">
       <c r="A955" s="1">
         <v>1236</v>
       </c>
@@ -33008,7 +33017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" spans="1:5" hidden="1">
       <c r="A956" s="1">
         <v>1246</v>
       </c>
@@ -33025,7 +33034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:5">
+    <row r="957" spans="1:5" hidden="1">
       <c r="A957" s="1">
         <v>1253</v>
       </c>
@@ -33042,7 +33051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" spans="1:5" hidden="1">
       <c r="A958" s="1">
         <v>1260</v>
       </c>
@@ -33059,7 +33068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:5">
+    <row r="959" spans="1:5" hidden="1">
       <c r="A959" s="1">
         <v>1263</v>
       </c>
@@ -33076,7 +33085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:5">
+    <row r="960" spans="1:5" hidden="1">
       <c r="A960" s="1">
         <v>1274</v>
       </c>
@@ -33093,7 +33102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:5">
+    <row r="961" spans="1:5" hidden="1">
       <c r="A961" s="1">
         <v>1280</v>
       </c>
@@ -33110,7 +33119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:5">
+    <row r="962" spans="1:5" hidden="1">
       <c r="A962" s="1">
         <v>1289</v>
       </c>
@@ -33127,7 +33136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:5">
+    <row r="963" spans="1:5" hidden="1">
       <c r="A963" s="1">
         <v>1294</v>
       </c>
@@ -33144,7 +33153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" spans="1:5" hidden="1">
       <c r="A964" s="1">
         <v>1299</v>
       </c>
@@ -33161,7 +33170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" spans="1:5" hidden="1">
       <c r="A965" s="1">
         <v>1309</v>
       </c>
@@ -33178,7 +33187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" spans="1:5" hidden="1">
       <c r="A966" s="1">
         <v>1315</v>
       </c>
@@ -33195,7 +33204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:5">
+    <row r="967" spans="1:5" hidden="1">
       <c r="A967" s="1">
         <v>1324</v>
       </c>
@@ -33212,7 +33221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:5">
+    <row r="968" spans="1:5" hidden="1">
       <c r="A968" s="1">
         <v>1325</v>
       </c>
@@ -33229,7 +33238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:5">
+    <row r="969" spans="1:5" hidden="1">
       <c r="A969" s="1">
         <v>1337</v>
       </c>
@@ -33246,7 +33255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" spans="1:5" hidden="1">
       <c r="A970" s="1">
         <v>1352</v>
       </c>
@@ -33263,7 +33272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:5">
+    <row r="971" spans="1:5" hidden="1">
       <c r="A971" s="1">
         <v>1359</v>
       </c>
@@ -33280,7 +33289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:5">
+    <row r="972" spans="1:5" hidden="1">
       <c r="A972" s="1">
         <v>1369</v>
       </c>
@@ -33297,7 +33306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:5">
+    <row r="973" spans="1:5" hidden="1">
       <c r="A973" s="1">
         <v>1375</v>
       </c>
@@ -33314,7 +33323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:5">
+    <row r="974" spans="1:5" hidden="1">
       <c r="A974" s="1">
         <v>1389</v>
       </c>
@@ -33331,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:5" hidden="1">
       <c r="A975" s="1">
         <v>1398</v>
       </c>
@@ -33348,7 +33357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:5">
+    <row r="976" spans="1:5" hidden="1">
       <c r="A976" s="1">
         <v>1400</v>
       </c>
@@ -33365,7 +33374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:5" hidden="1">
       <c r="A977" s="1">
         <v>1401</v>
       </c>
@@ -33382,7 +33391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:5" hidden="1">
       <c r="A978" s="1">
         <v>1410</v>
       </c>
@@ -33399,7 +33408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:5" hidden="1">
       <c r="A979" s="1">
         <v>1416</v>
       </c>
@@ -33416,7 +33425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" spans="1:5" hidden="1">
       <c r="A980" s="1">
         <v>1423</v>
       </c>
@@ -33433,7 +33442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:5" hidden="1">
       <c r="A981" s="1">
         <v>1431</v>
       </c>
@@ -33450,7 +33459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:5" hidden="1">
       <c r="A982" s="1">
         <v>1433</v>
       </c>
@@ -33467,7 +33476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:5" hidden="1">
       <c r="A983" s="1">
         <v>1436</v>
       </c>
@@ -33484,7 +33493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:5" hidden="1">
       <c r="A984" s="1">
         <v>1443</v>
       </c>
@@ -33501,7 +33510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:5" hidden="1">
       <c r="A985" s="1">
         <v>1449</v>
       </c>
@@ -33518,7 +33527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:5" hidden="1">
       <c r="A986" s="1">
         <v>1457</v>
       </c>
@@ -33535,7 +33544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:5" hidden="1">
       <c r="A987" s="1">
         <v>1462</v>
       </c>
@@ -33552,7 +33561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:5" hidden="1">
       <c r="A988" s="1">
         <v>1472</v>
       </c>
@@ -33569,7 +33578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:5">
+    <row r="989" spans="1:5" hidden="1">
       <c r="A989" s="1">
         <v>1481</v>
       </c>
@@ -33586,7 +33595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" spans="1:5" hidden="1">
       <c r="A990" s="1">
         <v>1489</v>
       </c>
@@ -33603,7 +33612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:5">
+    <row r="991" spans="1:5" hidden="1">
       <c r="A991" s="1">
         <v>1494</v>
       </c>
@@ -33620,7 +33629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" spans="1:5" hidden="1">
       <c r="A992" s="1">
         <v>1501</v>
       </c>
@@ -33637,7 +33646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:5">
+    <row r="993" spans="1:5" hidden="1">
       <c r="A993" s="1">
         <v>1507</v>
       </c>
@@ -33654,7 +33663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:5">
+    <row r="994" spans="1:5" hidden="1">
       <c r="A994" s="1">
         <v>1515</v>
       </c>
@@ -33671,7 +33680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:5">
+    <row r="995" spans="1:5" hidden="1">
       <c r="A995" s="1">
         <v>1521</v>
       </c>
@@ -33688,7 +33697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:5">
+    <row r="996" spans="1:5" hidden="1">
       <c r="A996" s="1">
         <v>1528</v>
       </c>
@@ -33705,7 +33714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:5">
+    <row r="997" spans="1:5" hidden="1">
       <c r="A997" s="1">
         <v>1535</v>
       </c>
@@ -33722,7 +33731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:5">
+    <row r="998" spans="1:5" hidden="1">
       <c r="A998" s="1">
         <v>1541</v>
       </c>
@@ -33739,7 +33748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:5">
+    <row r="999" spans="1:5" hidden="1">
       <c r="A999" s="1">
         <v>1542</v>
       </c>
@@ -33756,7 +33765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:5">
+    <row r="1000" spans="1:5" hidden="1">
       <c r="A1000" s="1">
         <v>1551</v>
       </c>
@@ -33773,7 +33782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:5">
+    <row r="1001" spans="1:5" hidden="1">
       <c r="A1001" s="1">
         <v>1567</v>
       </c>
@@ -33790,7 +33799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:5">
+    <row r="1002" spans="1:5" hidden="1">
       <c r="A1002" s="1">
         <v>1571</v>
       </c>
@@ -33807,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:5">
+    <row r="1003" spans="1:5" hidden="1">
       <c r="A1003" s="1">
         <v>1580</v>
       </c>
@@ -33824,7 +33833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:5">
+    <row r="1004" spans="1:5" hidden="1">
       <c r="A1004" s="1">
         <v>1581</v>
       </c>
@@ -33841,7 +33850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:5">
+    <row r="1005" spans="1:5" hidden="1">
       <c r="A1005" s="1">
         <v>1583</v>
       </c>
@@ -33858,7 +33867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:5">
+    <row r="1006" spans="1:5" hidden="1">
       <c r="A1006" s="1">
         <v>1588</v>
       </c>
@@ -33875,7 +33884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:5">
+    <row r="1007" spans="1:5" hidden="1">
       <c r="A1007" s="1">
         <v>1592</v>
       </c>
@@ -33892,7 +33901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:5">
+    <row r="1008" spans="1:5" hidden="1">
       <c r="A1008" s="1">
         <v>1593</v>
       </c>
@@ -33909,7 +33918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:5">
+    <row r="1009" spans="1:5" hidden="1">
       <c r="A1009" s="1">
         <v>1599</v>
       </c>
@@ -33926,7 +33935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:5">
+    <row r="1010" spans="1:5" hidden="1">
       <c r="A1010" s="1">
         <v>1606</v>
       </c>
@@ -33943,7 +33952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:5">
+    <row r="1011" spans="1:5" hidden="1">
       <c r="A1011" s="1">
         <v>1613</v>
       </c>
@@ -33960,7 +33969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:5">
+    <row r="1012" spans="1:5" hidden="1">
       <c r="A1012" s="1">
         <v>1617</v>
       </c>
@@ -33977,7 +33986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:5">
+    <row r="1013" spans="1:5" hidden="1">
       <c r="A1013" s="1">
         <v>1625</v>
       </c>
@@ -33994,7 +34003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:5">
+    <row r="1014" spans="1:5" hidden="1">
       <c r="A1014" s="1">
         <v>1633</v>
       </c>
@@ -34011,7 +34020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:5">
+    <row r="1015" spans="1:5" hidden="1">
       <c r="A1015" s="1">
         <v>1638</v>
       </c>
@@ -34028,7 +34037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:5">
+    <row r="1016" spans="1:5" hidden="1">
       <c r="A1016" s="1">
         <v>1642</v>
       </c>
@@ -34045,7 +34054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:5">
+    <row r="1017" spans="1:5" hidden="1">
       <c r="A1017" s="1">
         <v>1646</v>
       </c>
@@ -34062,7 +34071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:5">
+    <row r="1018" spans="1:5" hidden="1">
       <c r="A1018" s="1">
         <v>1649</v>
       </c>
@@ -34079,7 +34088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:5">
+    <row r="1019" spans="1:5" hidden="1">
       <c r="A1019" s="1">
         <v>1654</v>
       </c>
@@ -34096,7 +34105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:5">
+    <row r="1020" spans="1:5" hidden="1">
       <c r="A1020" s="1">
         <v>1659</v>
       </c>
@@ -34113,7 +34122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:5">
+    <row r="1021" spans="1:5" hidden="1">
       <c r="A1021" s="1">
         <v>1663</v>
       </c>
@@ -34130,7 +34139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:5">
+    <row r="1022" spans="1:5" hidden="1">
       <c r="A1022" s="1">
         <v>1667</v>
       </c>
@@ -34147,7 +34156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:5">
+    <row r="1023" spans="1:5" hidden="1">
       <c r="A1023" s="1">
         <v>1673</v>
       </c>
@@ -34164,7 +34173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:5">
+    <row r="1024" spans="1:5" hidden="1">
       <c r="A1024" s="1">
         <v>1684</v>
       </c>
@@ -34181,7 +34190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:5">
+    <row r="1025" spans="1:5" hidden="1">
       <c r="A1025" s="1">
         <v>1692</v>
       </c>
@@ -34198,7 +34207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:5">
+    <row r="1026" spans="1:5" hidden="1">
       <c r="A1026" s="1">
         <v>1696</v>
       </c>
@@ -34215,7 +34224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:5">
+    <row r="1027" spans="1:5" hidden="1">
       <c r="A1027" s="1">
         <v>1701</v>
       </c>
@@ -34232,7 +34241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:5">
+    <row r="1028" spans="1:5" hidden="1">
       <c r="A1028" s="1">
         <v>1709</v>
       </c>
@@ -34249,7 +34258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:5">
+    <row r="1029" spans="1:5" hidden="1">
       <c r="A1029" s="1">
         <v>1710</v>
       </c>
@@ -34266,7 +34275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:5">
+    <row r="1030" spans="1:5" hidden="1">
       <c r="A1030" s="1">
         <v>1717</v>
       </c>
@@ -34283,7 +34292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:5">
+    <row r="1031" spans="1:5" hidden="1">
       <c r="A1031" s="1">
         <v>1723</v>
       </c>
@@ -34300,7 +34309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:5">
+    <row r="1032" spans="1:5" hidden="1">
       <c r="A1032" s="1">
         <v>1731</v>
       </c>
@@ -34317,7 +34326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:5">
+    <row r="1033" spans="1:5" hidden="1">
       <c r="A1033" s="1">
         <v>1737</v>
       </c>
@@ -34334,7 +34343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:5">
+    <row r="1034" spans="1:5" hidden="1">
       <c r="A1034" s="1">
         <v>1752</v>
       </c>
@@ -34351,7 +34360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:5">
+    <row r="1035" spans="1:5" hidden="1">
       <c r="A1035" s="1">
         <v>1755</v>
       </c>
@@ -34368,7 +34377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:5">
+    <row r="1036" spans="1:5" hidden="1">
       <c r="A1036" s="1">
         <v>1766</v>
       </c>
@@ -34385,7 +34394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:5">
+    <row r="1037" spans="1:5" hidden="1">
       <c r="A1037" s="1">
         <v>1769</v>
       </c>
@@ -34402,7 +34411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:5">
+    <row r="1038" spans="1:5" hidden="1">
       <c r="A1038" s="1">
         <v>1782</v>
       </c>
@@ -34419,7 +34428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:5">
+    <row r="1039" spans="1:5" hidden="1">
       <c r="A1039" s="1">
         <v>1787</v>
       </c>
@@ -34436,7 +34445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:5">
+    <row r="1040" spans="1:5" hidden="1">
       <c r="A1040" s="1">
         <v>1793</v>
       </c>
@@ -34453,7 +34462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:5">
+    <row r="1041" spans="1:5" hidden="1">
       <c r="A1041" s="1">
         <v>1800</v>
       </c>
@@ -34470,7 +34479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:5">
+    <row r="1042" spans="1:5" hidden="1">
       <c r="A1042" s="1">
         <v>1805</v>
       </c>
@@ -34487,7 +34496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:5">
+    <row r="1043" spans="1:5" hidden="1">
       <c r="A1043" s="1">
         <v>1814</v>
       </c>
@@ -34504,7 +34513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:5">
+    <row r="1044" spans="1:5" hidden="1">
       <c r="A1044" s="1">
         <v>1821</v>
       </c>
@@ -34521,7 +34530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1045" spans="1:5">
+    <row r="1045" spans="1:5" hidden="1">
       <c r="A1045" s="1">
         <v>1827</v>
       </c>
@@ -34538,7 +34547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:5">
+    <row r="1046" spans="1:5" hidden="1">
       <c r="A1046" s="1">
         <v>1833</v>
       </c>
@@ -34555,7 +34564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:5">
+    <row r="1047" spans="1:5" hidden="1">
       <c r="A1047" s="1">
         <v>1845</v>
       </c>
@@ -34572,7 +34581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:5">
+    <row r="1048" spans="1:5" hidden="1">
       <c r="A1048" s="1">
         <v>1850</v>
       </c>
@@ -34589,7 +34598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:5">
+    <row r="1049" spans="1:5" hidden="1">
       <c r="A1049" s="1">
         <v>1856</v>
       </c>
@@ -34606,7 +34615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:5">
+    <row r="1050" spans="1:5" hidden="1">
       <c r="A1050" s="1">
         <v>1864</v>
       </c>
@@ -34623,7 +34632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:5">
+    <row r="1051" spans="1:5" hidden="1">
       <c r="A1051" s="1">
         <v>2158</v>
       </c>
@@ -34640,7 +34649,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1052" spans="1:5">
+    <row r="1052" spans="1:5" hidden="1">
       <c r="A1052" s="1">
         <v>2159</v>
       </c>
@@ -34657,7 +34666,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1053" spans="1:5">
+    <row r="1053" spans="1:5" hidden="1">
       <c r="A1053" s="1">
         <v>2160</v>
       </c>
@@ -34674,7 +34683,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1054" spans="1:5">
+    <row r="1054" spans="1:5" hidden="1">
       <c r="A1054" s="1">
         <v>2161</v>
       </c>
@@ -34691,7 +34700,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1055" spans="1:5">
+    <row r="1055" spans="1:5" hidden="1">
       <c r="A1055" s="1">
         <v>2162</v>
       </c>
@@ -34708,7 +34717,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1056" spans="1:5">
+    <row r="1056" spans="1:5" hidden="1">
       <c r="A1056" s="1">
         <v>2163</v>
       </c>
@@ -34725,7 +34734,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1057" spans="1:5">
+    <row r="1057" spans="1:5" hidden="1">
       <c r="A1057" s="1">
         <v>2164</v>
       </c>
@@ -34742,41 +34751,219 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1058" spans="1:5">
+    <row r="1058" spans="1:5" hidden="1">
       <c r="A1058" s="1"/>
       <c r="B1058" s="1"/>
       <c r="C1058" s="1"/>
       <c r="D1058" s="8"/>
     </row>
-    <row r="1228"/>
-    <row r="1229"/>
-    <row r="1230"/>
-    <row r="1231"/>
-    <row r="1232"/>
-    <row r="1233"/>
-    <row r="1234"/>
-    <row r="1235"/>
-    <row r="1236"/>
-    <row r="1237"/>
-    <row r="1238"/>
-    <row r="1239"/>
-    <row r="1240"/>
-    <row r="1241"/>
-    <row r="1242"/>
-    <row r="1243"/>
-    <row r="1244"/>
-    <row r="1245"/>
-    <row r="1246"/>
-    <row r="1247"/>
-    <row r="1248"/>
-    <row r="1249"/>
-    <row r="1250"/>
-    <row r="1251"/>
-    <row r="1252"/>
-    <row r="1253"/>
-    <row r="1254"/>
-    <row r="1255"/>
+    <row r="1059" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1060" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1061" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1062" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1063" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1064" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1065" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1066" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1067" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1068" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1069" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1070" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1071" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1072" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="1073" ht="15" hidden="1" customHeight="1"/>
+    <row r="1074" ht="15" hidden="1" customHeight="1"/>
+    <row r="1075" ht="15" hidden="1" customHeight="1"/>
+    <row r="1076" ht="15" hidden="1" customHeight="1"/>
+    <row r="1077" ht="15" hidden="1" customHeight="1"/>
+    <row r="1078" ht="15" hidden="1" customHeight="1"/>
+    <row r="1079" ht="15" hidden="1" customHeight="1"/>
+    <row r="1080" ht="15" hidden="1" customHeight="1"/>
+    <row r="1081" ht="15" hidden="1" customHeight="1"/>
+    <row r="1082" ht="15" hidden="1" customHeight="1"/>
+    <row r="1083" ht="15" hidden="1" customHeight="1"/>
+    <row r="1084" ht="15" hidden="1" customHeight="1"/>
+    <row r="1085" ht="15" hidden="1" customHeight="1"/>
+    <row r="1086" ht="15" hidden="1" customHeight="1"/>
+    <row r="1087" ht="15" hidden="1" customHeight="1"/>
+    <row r="1088" ht="15" hidden="1" customHeight="1"/>
+    <row r="1089" ht="15" hidden="1" customHeight="1"/>
+    <row r="1090" ht="15" hidden="1" customHeight="1"/>
+    <row r="1091" ht="15" hidden="1" customHeight="1"/>
+    <row r="1092" ht="15" hidden="1" customHeight="1"/>
+    <row r="1093" ht="15" hidden="1" customHeight="1"/>
+    <row r="1094" ht="15" hidden="1" customHeight="1"/>
+    <row r="1095" ht="15" hidden="1" customHeight="1"/>
+    <row r="1096" ht="15" hidden="1" customHeight="1"/>
+    <row r="1097" ht="15" hidden="1" customHeight="1"/>
+    <row r="1098" ht="15" hidden="1" customHeight="1"/>
+    <row r="1099" ht="15" hidden="1" customHeight="1"/>
+    <row r="1100" ht="15" hidden="1" customHeight="1"/>
+    <row r="1101" ht="15" hidden="1" customHeight="1"/>
+    <row r="1102" ht="15" hidden="1" customHeight="1"/>
+    <row r="1103" ht="15" hidden="1" customHeight="1"/>
+    <row r="1104" ht="15" hidden="1" customHeight="1"/>
+    <row r="1105" ht="15" hidden="1" customHeight="1"/>
+    <row r="1106" ht="15" hidden="1" customHeight="1"/>
+    <row r="1107" ht="15" hidden="1" customHeight="1"/>
+    <row r="1108" ht="15" hidden="1" customHeight="1"/>
+    <row r="1109" ht="15" hidden="1" customHeight="1"/>
+    <row r="1110" ht="15" hidden="1" customHeight="1"/>
+    <row r="1111" ht="15" hidden="1" customHeight="1"/>
+    <row r="1112" ht="15" hidden="1" customHeight="1"/>
+    <row r="1113" ht="15" hidden="1" customHeight="1"/>
+    <row r="1114" ht="15" hidden="1" customHeight="1"/>
+    <row r="1115" ht="15" hidden="1" customHeight="1"/>
+    <row r="1116" ht="15" hidden="1" customHeight="1"/>
+    <row r="1117" ht="15" hidden="1" customHeight="1"/>
+    <row r="1118" ht="15" hidden="1" customHeight="1"/>
+    <row r="1119" ht="15" hidden="1" customHeight="1"/>
+    <row r="1120" ht="15" hidden="1" customHeight="1"/>
+    <row r="1121" ht="15" hidden="1" customHeight="1"/>
+    <row r="1122" ht="15" hidden="1" customHeight="1"/>
+    <row r="1123" ht="15" hidden="1" customHeight="1"/>
+    <row r="1124" ht="15" hidden="1" customHeight="1"/>
+    <row r="1125" ht="15" hidden="1" customHeight="1"/>
+    <row r="1126" ht="15" hidden="1" customHeight="1"/>
+    <row r="1127" ht="15" hidden="1" customHeight="1"/>
+    <row r="1128" ht="15" hidden="1" customHeight="1"/>
+    <row r="1129" ht="15" hidden="1" customHeight="1"/>
+    <row r="1130" ht="15" hidden="1" customHeight="1"/>
+    <row r="1131" ht="15" hidden="1" customHeight="1"/>
+    <row r="1132" ht="15" hidden="1" customHeight="1"/>
+    <row r="1133" ht="15" hidden="1" customHeight="1"/>
+    <row r="1134" ht="15" hidden="1" customHeight="1"/>
+    <row r="1135" ht="15" hidden="1" customHeight="1"/>
+    <row r="1136" ht="15" hidden="1" customHeight="1"/>
+    <row r="1137" ht="15" hidden="1" customHeight="1"/>
+    <row r="1138" ht="15" hidden="1" customHeight="1"/>
+    <row r="1139" ht="15" hidden="1" customHeight="1"/>
+    <row r="1140" ht="15" hidden="1" customHeight="1"/>
+    <row r="1141" ht="15" hidden="1" customHeight="1"/>
+    <row r="1142" ht="15" hidden="1" customHeight="1"/>
+    <row r="1143" ht="15" hidden="1" customHeight="1"/>
+    <row r="1144" ht="15" hidden="1" customHeight="1"/>
+    <row r="1145" ht="15" hidden="1" customHeight="1"/>
+    <row r="1146" ht="15" hidden="1" customHeight="1"/>
+    <row r="1147" ht="15" hidden="1" customHeight="1"/>
+    <row r="1148" ht="15" hidden="1" customHeight="1"/>
+    <row r="1149" ht="15" hidden="1" customHeight="1"/>
+    <row r="1150" ht="15" hidden="1" customHeight="1"/>
+    <row r="1151" ht="15" hidden="1" customHeight="1"/>
+    <row r="1152" ht="15" hidden="1" customHeight="1"/>
+    <row r="1153" ht="15" hidden="1" customHeight="1"/>
+    <row r="1154" ht="15" hidden="1" customHeight="1"/>
+    <row r="1155" ht="15" hidden="1" customHeight="1"/>
+    <row r="1156" ht="15" hidden="1" customHeight="1"/>
+    <row r="1157" ht="15" hidden="1" customHeight="1"/>
+    <row r="1158" ht="15" hidden="1" customHeight="1"/>
+    <row r="1159" ht="15" hidden="1" customHeight="1"/>
+    <row r="1160" ht="15" hidden="1" customHeight="1"/>
+    <row r="1161" ht="15" hidden="1" customHeight="1"/>
+    <row r="1162" ht="15" hidden="1" customHeight="1"/>
+    <row r="1163" ht="15" hidden="1" customHeight="1"/>
+    <row r="1164" ht="15" hidden="1" customHeight="1"/>
+    <row r="1165" ht="15" hidden="1" customHeight="1"/>
+    <row r="1166" ht="15" hidden="1" customHeight="1"/>
+    <row r="1167" ht="15" hidden="1" customHeight="1"/>
+    <row r="1168" ht="15" hidden="1" customHeight="1"/>
+    <row r="1169" ht="15" hidden="1" customHeight="1"/>
+    <row r="1170" ht="15" hidden="1" customHeight="1"/>
+    <row r="1171" ht="15" hidden="1" customHeight="1"/>
+    <row r="1172" ht="15" hidden="1" customHeight="1"/>
+    <row r="1173" ht="15" hidden="1" customHeight="1"/>
+    <row r="1174" ht="15" hidden="1" customHeight="1"/>
+    <row r="1175" ht="15" hidden="1" customHeight="1"/>
+    <row r="1176" ht="15" hidden="1" customHeight="1"/>
+    <row r="1177" ht="15" hidden="1" customHeight="1"/>
+    <row r="1178" ht="15" hidden="1" customHeight="1"/>
+    <row r="1179" ht="15" hidden="1" customHeight="1"/>
+    <row r="1180" ht="15" hidden="1" customHeight="1"/>
+    <row r="1181" ht="15" hidden="1" customHeight="1"/>
+    <row r="1182" ht="15" hidden="1" customHeight="1"/>
+    <row r="1183" ht="15" hidden="1" customHeight="1"/>
+    <row r="1184" ht="15" hidden="1" customHeight="1"/>
+    <row r="1185" ht="15" hidden="1" customHeight="1"/>
+    <row r="1186" ht="15" hidden="1" customHeight="1"/>
+    <row r="1187" ht="15" hidden="1" customHeight="1"/>
+    <row r="1188" ht="15" hidden="1" customHeight="1"/>
+    <row r="1189" ht="15" hidden="1" customHeight="1"/>
+    <row r="1190" ht="15" hidden="1" customHeight="1"/>
+    <row r="1191" ht="15" hidden="1" customHeight="1"/>
+    <row r="1192" ht="15" hidden="1" customHeight="1"/>
+    <row r="1193" ht="15" hidden="1" customHeight="1"/>
+    <row r="1194" ht="15" hidden="1" customHeight="1"/>
+    <row r="1195" ht="15" hidden="1" customHeight="1"/>
+    <row r="1196" ht="15" hidden="1" customHeight="1"/>
+    <row r="1197" ht="15" hidden="1" customHeight="1"/>
+    <row r="1198" ht="15" hidden="1" customHeight="1"/>
+    <row r="1199" ht="15" hidden="1" customHeight="1"/>
+    <row r="1200" ht="15" hidden="1" customHeight="1"/>
+    <row r="1201" ht="15" hidden="1" customHeight="1"/>
+    <row r="1202" ht="15" hidden="1" customHeight="1"/>
+    <row r="1203" ht="15" hidden="1" customHeight="1"/>
+    <row r="1204" ht="15" hidden="1" customHeight="1"/>
+    <row r="1205" ht="15" hidden="1" customHeight="1"/>
+    <row r="1206" ht="15" hidden="1" customHeight="1"/>
+    <row r="1207" ht="15" hidden="1" customHeight="1"/>
+    <row r="1208" ht="15" hidden="1" customHeight="1"/>
+    <row r="1209" ht="15" hidden="1" customHeight="1"/>
+    <row r="1210" ht="15" hidden="1" customHeight="1"/>
+    <row r="1211" ht="15" hidden="1" customHeight="1"/>
+    <row r="1212" ht="15" hidden="1" customHeight="1"/>
+    <row r="1213" ht="15" hidden="1" customHeight="1"/>
+    <row r="1214" ht="15" hidden="1" customHeight="1"/>
+    <row r="1215" ht="15" hidden="1" customHeight="1"/>
+    <row r="1216" ht="15" hidden="1" customHeight="1"/>
+    <row r="1217" ht="15" hidden="1" customHeight="1"/>
+    <row r="1218" ht="15" hidden="1" customHeight="1"/>
+    <row r="1219" ht="15" hidden="1" customHeight="1"/>
+    <row r="1220" ht="15" hidden="1" customHeight="1"/>
+    <row r="1221" ht="15" hidden="1" customHeight="1"/>
+    <row r="1222" ht="15" hidden="1" customHeight="1"/>
+    <row r="1223" ht="15" hidden="1" customHeight="1"/>
+    <row r="1224" ht="15" hidden="1" customHeight="1"/>
+    <row r="1225" ht="15" hidden="1" customHeight="1"/>
+    <row r="1226" ht="15" hidden="1" customHeight="1"/>
+    <row r="1227" ht="15" hidden="1" customHeight="1"/>
+    <row r="1228" hidden="1"/>
+    <row r="1229" hidden="1"/>
+    <row r="1230" hidden="1"/>
+    <row r="1231" hidden="1"/>
+    <row r="1232" hidden="1"/>
+    <row r="1233" hidden="1"/>
+    <row r="1234" hidden="1"/>
+    <row r="1235" hidden="1"/>
+    <row r="1236" hidden="1"/>
+    <row r="1237" hidden="1"/>
+    <row r="1238" hidden="1"/>
+    <row r="1239" hidden="1"/>
+    <row r="1240" hidden="1"/>
+    <row r="1241" hidden="1"/>
+    <row r="1242" hidden="1"/>
+    <row r="1243" hidden="1"/>
+    <row r="1244" hidden="1"/>
+    <row r="1245" hidden="1"/>
+    <row r="1246" hidden="1"/>
+    <row r="1247" hidden="1"/>
+    <row r="1248" hidden="1"/>
+    <row r="1249" hidden="1"/>
+    <row r="1250" hidden="1"/>
+    <row r="1251" hidden="1"/>
+    <row r="1252" hidden="1"/>
+    <row r="1253" hidden="1"/>
+    <row r="1254" hidden="1"/>
+    <row r="1255" hidden="1"/>
   </sheetData>
+  <autoFilter ref="A1:G1255" xr:uid="{25C42477-C3FB-4C69-B720-FA9C5D7BBCD2}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1937"/>
+        <filter val="1939"/>
+        <filter val="1941"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A211:F1050">
     <sortCondition ref="B211:B1050"/>
   </sortState>
@@ -34792,7 +34979,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
